--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_6_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_6_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559390.2095489232</v>
+        <v>426841.5729446543</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>932032.3303307665</v>
+        <v>880967.3261923122</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23268997.70193246</v>
+        <v>23242786.71577991</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5055467.820745255</v>
+        <v>5068195.910240212</v>
       </c>
     </row>
     <row r="11">
@@ -1381,22 +1381,22 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="G11" t="n">
-        <v>33.02557404290957</v>
+        <v>27.66854992137583</v>
       </c>
       <c r="H11" t="n">
-        <v>37.49497507142323</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>37.49497507142323</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>37.49497507142323</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>12.28237135389813</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>45.35754004913031</v>
       </c>
     </row>
     <row r="12">
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1493,25 +1493,25 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>29.12366162714612</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>37.49497507142323</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>37.49497507142323</v>
+        <v>10.82725964812786</v>
       </c>
       <c r="V12" t="n">
-        <v>37.49497507142323</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>33.02557404290958</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>43.30589398504156</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>43.30589398504156</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>43.30589398504156</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>38.14383142202458</v>
+        <v>39.95092127527398</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>39.95092127527396</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>38.14383142202458</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>43.30589398504156</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>43.30589398504156</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>43.30589398504156</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="G17" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>65.32105962556882</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="I17" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>62.27902778684216</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>66.68191730512683</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1967,25 +1967,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R18" t="n">
-        <v>59.75657007276244</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>67.84351733964857</v>
+        <v>44.15291272711821</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.84351733964857</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>59.75657007276244</v>
+        <v>74.1797701494219</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>59.75657007276241</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>66.68191730512683</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2320,53 +2320,53 @@
         <v>77.20917189415033</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>66.59218285739217</v>
+      </c>
+      <c r="R23" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>66.59218285739217</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,76 +2396,76 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>68.00583860436758</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="C24" t="n">
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>22.52900457800858</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="X24" t="n">
-        <v>45.47683402635902</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>66.59218285739217</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>66.59218285739217</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,67 +2633,67 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>45.47683402635902</v>
+      </c>
+      <c r="F27" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="G27" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>22.52900457800858</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>77.20917189415033</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>68.00583860436758</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>77.20917189415033</v>
@@ -2836,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>66.59218285739217</v>
       </c>
       <c r="R29" t="n">
         <v>77.20917189415033</v>
       </c>
       <c r="S29" t="n">
-        <v>66.59218285739217</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2870,23 +2870,23 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>77.20917189415033</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>68.00583860436758</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="S30" t="n">
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3037,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="F32" t="n">
+      <c r="S32" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>77.20917189415033</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>66.59218285739217</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>77.20917189415033</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,26 +3107,26 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
@@ -3152,25 +3152,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="U33" t="n">
-        <v>68.00583860436758</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>77.20917189415033</v>
+        <v>45.47683402635902</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3268,62 +3268,62 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>75.70608231735569</v>
       </c>
-      <c r="E35" t="n">
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>66.6819173051269</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>75.70608231735569</v>
       </c>
-      <c r="F35" t="n">
-        <v>66.68191730512692</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>44.15291272711835</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3389,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>69.89516340373737</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>69.89516340373737</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="I38" t="n">
-        <v>69.89516340373737</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>61.56365992601187</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3587,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="F39" t="n">
-        <v>39.03465534800331</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>69.89516340373737</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>69.89516340373737</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>69.89516340373737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3745,61 +3745,61 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>39.95092127527401</v>
+      </c>
+      <c r="S41" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>45.35754004913036</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>45.35754004913036</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,73 +3821,73 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>22.5290045780086</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>17.42191669726541</v>
+      </c>
+      <c r="T42" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="W42" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="X42" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="S44" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>45.35754004913036</v>
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>17.42191669726541</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>17.42191669726542</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.5290045780086</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="V45" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>149.9799002856929</v>
+        <v>89.79876615787413</v>
       </c>
       <c r="C11" t="n">
-        <v>149.9799002856929</v>
+        <v>89.79876615787413</v>
       </c>
       <c r="D11" t="n">
-        <v>149.9799002856929</v>
+        <v>89.79876615787413</v>
       </c>
       <c r="E11" t="n">
-        <v>149.9799002856929</v>
+        <v>89.79876615787413</v>
       </c>
       <c r="F11" t="n">
-        <v>149.9799002856929</v>
+        <v>43.98306913855058</v>
       </c>
       <c r="G11" t="n">
-        <v>116.6207345857842</v>
+        <v>16.03503891493864</v>
       </c>
       <c r="H11" t="n">
-        <v>78.74702239242745</v>
+        <v>16.03503891493864</v>
       </c>
       <c r="I11" t="n">
-        <v>40.87331019907065</v>
+        <v>16.03503891493864</v>
       </c>
       <c r="J11" t="n">
-        <v>2.999598005713858</v>
+        <v>16.03503891493864</v>
       </c>
       <c r="K11" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="L11" t="n">
-        <v>40.11962332642285</v>
+        <v>46.50990093046232</v>
       </c>
       <c r="M11" t="n">
-        <v>77.23964864713184</v>
+        <v>91.41386557910133</v>
       </c>
       <c r="N11" t="n">
-        <v>114.3596739678408</v>
+        <v>136.3178302277403</v>
       </c>
       <c r="O11" t="n">
-        <v>149.9799002856929</v>
+        <v>181.2217948763794</v>
       </c>
       <c r="P11" t="n">
-        <v>149.9799002856929</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="Q11" t="n">
-        <v>149.9799002856929</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="R11" t="n">
-        <v>149.9799002856929</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="S11" t="n">
-        <v>149.9799002856929</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="T11" t="n">
-        <v>149.9799002856929</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="U11" t="n">
-        <v>149.9799002856929</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="V11" t="n">
-        <v>149.9799002856929</v>
+        <v>135.6144631771977</v>
       </c>
       <c r="W11" t="n">
-        <v>149.9799002856929</v>
+        <v>135.6144631771977</v>
       </c>
       <c r="X11" t="n">
-        <v>149.9799002856929</v>
+        <v>135.6144631771977</v>
       </c>
       <c r="Y11" t="n">
-        <v>149.9799002856929</v>
+        <v>89.79876615787413</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.999598005713858</v>
+        <v>95.25999724257751</v>
       </c>
       <c r="C12" t="n">
-        <v>2.999598005713858</v>
+        <v>95.25999724257751</v>
       </c>
       <c r="D12" t="n">
-        <v>2.999598005713858</v>
+        <v>49.44430022325397</v>
       </c>
       <c r="E12" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="F12" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="G12" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="H12" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="I12" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="J12" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="K12" t="n">
-        <v>2.999598005713858</v>
+        <v>23.63537969436592</v>
       </c>
       <c r="L12" t="n">
-        <v>38.6198243235659</v>
+        <v>42.89983124911217</v>
       </c>
       <c r="M12" t="n">
-        <v>75.7398496442749</v>
+        <v>74.8446286234457</v>
       </c>
       <c r="N12" t="n">
-        <v>112.8598749649839</v>
+        <v>119.7485932720847</v>
       </c>
       <c r="O12" t="n">
-        <v>149.9799002856929</v>
+        <v>136.5261955478822</v>
       </c>
       <c r="P12" t="n">
-        <v>149.9799002856929</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="Q12" t="n">
-        <v>149.9799002856929</v>
+        <v>152.0123201691009</v>
       </c>
       <c r="R12" t="n">
-        <v>149.9799002856929</v>
+        <v>106.1966231497774</v>
       </c>
       <c r="S12" t="n">
-        <v>149.9799002856929</v>
+        <v>106.1966231497774</v>
       </c>
       <c r="T12" t="n">
-        <v>112.1061880923361</v>
+        <v>106.1966231497774</v>
       </c>
       <c r="U12" t="n">
-        <v>74.23247589897932</v>
+        <v>95.25999724257751</v>
       </c>
       <c r="V12" t="n">
-        <v>36.35876370562252</v>
+        <v>95.25999724257751</v>
       </c>
       <c r="W12" t="n">
-        <v>2.999598005713858</v>
+        <v>95.25999724257751</v>
       </c>
       <c r="X12" t="n">
-        <v>2.999598005713858</v>
+        <v>95.25999724257751</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.999598005713858</v>
+        <v>95.25999724257751</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="C13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="D13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="E13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="F13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="G13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="H13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="I13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="J13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="K13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="L13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="M13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="N13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="O13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="P13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="R13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="S13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="T13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="U13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="V13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="W13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="X13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.999598005713858</v>
+        <v>3.628603203930425</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.464471518803325</v>
+        <v>95.25999724257751</v>
       </c>
       <c r="C14" t="n">
-        <v>3.464471518803325</v>
+        <v>95.25999724257751</v>
       </c>
       <c r="D14" t="n">
-        <v>3.464471518803325</v>
+        <v>49.44430022325397</v>
       </c>
       <c r="E14" t="n">
-        <v>3.464471518803325</v>
+        <v>49.44430022325397</v>
       </c>
       <c r="F14" t="n">
-        <v>3.464471518803325</v>
+        <v>49.44430022325397</v>
       </c>
       <c r="G14" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="H14" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="I14" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="J14" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="K14" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="L14" t="n">
-        <v>46.33730656399447</v>
+        <v>37.77016765436028</v>
       </c>
       <c r="M14" t="n">
-        <v>89.21014160918563</v>
+        <v>82.67413230299928</v>
       </c>
       <c r="N14" t="n">
-        <v>132.0829766543768</v>
+        <v>127.5780969516383</v>
       </c>
       <c r="O14" t="n">
-        <v>173.2235759401663</v>
+        <v>172.4820616002773</v>
       </c>
       <c r="P14" t="n">
-        <v>173.2235759401663</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="Q14" t="n">
-        <v>173.2235759401663</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="R14" t="n">
-        <v>129.4802486825485</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="S14" t="n">
-        <v>85.73692142493076</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="T14" t="n">
-        <v>41.99359416731301</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="U14" t="n">
-        <v>3.464471518803325</v>
+        <v>141.075694261901</v>
       </c>
       <c r="V14" t="n">
-        <v>3.464471518803325</v>
+        <v>95.25999724257751</v>
       </c>
       <c r="W14" t="n">
-        <v>3.464471518803325</v>
+        <v>95.25999724257751</v>
       </c>
       <c r="X14" t="n">
-        <v>3.464471518803325</v>
+        <v>95.25999724257751</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.464471518803325</v>
+        <v>95.25999724257751</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>173.2235759401663</v>
+        <v>43.98306913855058</v>
       </c>
       <c r="C15" t="n">
-        <v>173.2235759401663</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="D15" t="n">
-        <v>173.2235759401663</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="E15" t="n">
-        <v>173.2235759401663</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="F15" t="n">
-        <v>134.6944532916566</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="G15" t="n">
-        <v>90.95112603403882</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20779877642107</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="I15" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="J15" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="K15" t="n">
-        <v>3.464471518803325</v>
+        <v>28.88636906642605</v>
       </c>
       <c r="L15" t="n">
-        <v>46.33730656399447</v>
+        <v>39.06224616299321</v>
       </c>
       <c r="M15" t="n">
-        <v>89.21014160918563</v>
+        <v>79.2464344715124</v>
       </c>
       <c r="N15" t="n">
-        <v>132.0829766543768</v>
+        <v>124.1503991201514</v>
       </c>
       <c r="O15" t="n">
-        <v>173.2235759401663</v>
+        <v>148.6649278284705</v>
       </c>
       <c r="P15" t="n">
-        <v>173.2235759401663</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.2235759401663</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="R15" t="n">
-        <v>173.2235759401663</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="S15" t="n">
-        <v>173.2235759401663</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="T15" t="n">
-        <v>173.2235759401663</v>
+        <v>181.4301601965212</v>
       </c>
       <c r="U15" t="n">
-        <v>173.2235759401663</v>
+        <v>135.6144631771977</v>
       </c>
       <c r="V15" t="n">
-        <v>173.2235759401663</v>
+        <v>89.79876615787413</v>
       </c>
       <c r="W15" t="n">
-        <v>173.2235759401663</v>
+        <v>43.98306913855058</v>
       </c>
       <c r="X15" t="n">
-        <v>173.2235759401663</v>
+        <v>43.98306913855058</v>
       </c>
       <c r="Y15" t="n">
-        <v>173.2235759401663</v>
+        <v>43.98306913855058</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="C16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="D16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="E16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="F16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="G16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="H16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="I16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="J16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="K16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="L16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="M16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="N16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="O16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="P16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="R16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="S16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="T16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="U16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="V16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="W16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="X16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.464471518803325</v>
+        <v>3.628603203930425</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>271.3740693585943</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="C17" t="n">
-        <v>271.3740693585943</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="D17" t="n">
-        <v>271.3740693585943</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="E17" t="n">
-        <v>271.3740693585943</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="F17" t="n">
-        <v>271.3740693585943</v>
+        <v>82.52727680493955</v>
       </c>
       <c r="G17" t="n">
-        <v>202.8452639650098</v>
+        <v>82.52727680493955</v>
       </c>
       <c r="H17" t="n">
-        <v>136.8643956563545</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="I17" t="n">
-        <v>68.33559026277004</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="J17" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="K17" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="L17" t="n">
-        <v>55.92433645350019</v>
+        <v>64.02277838053843</v>
       </c>
       <c r="M17" t="n">
-        <v>123.0894186197523</v>
+        <v>138.9717998747205</v>
       </c>
       <c r="N17" t="n">
-        <v>190.2545007860044</v>
+        <v>213.9208213689025</v>
       </c>
       <c r="O17" t="n">
-        <v>257.4195829522565</v>
+        <v>288.8698428630846</v>
       </c>
       <c r="P17" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="Q17" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="R17" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="S17" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="T17" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="U17" t="n">
-        <v>271.3740693585943</v>
+        <v>235.4688572440417</v>
       </c>
       <c r="V17" t="n">
-        <v>271.3740693585943</v>
+        <v>235.4688572440417</v>
       </c>
       <c r="W17" t="n">
-        <v>271.3740693585943</v>
+        <v>235.4688572440417</v>
       </c>
       <c r="X17" t="n">
-        <v>271.3740693585943</v>
+        <v>235.4688572440417</v>
       </c>
       <c r="Y17" t="n">
-        <v>271.3740693585943</v>
+        <v>158.9980670244906</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.427481387171886</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="C18" t="n">
-        <v>5.427481387171886</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="D18" t="n">
-        <v>5.427481387171886</v>
+        <v>82.52727680493955</v>
       </c>
       <c r="E18" t="n">
-        <v>5.427481387171886</v>
+        <v>82.52727680493955</v>
       </c>
       <c r="F18" t="n">
-        <v>5.427481387171886</v>
+        <v>82.52727680493955</v>
       </c>
       <c r="G18" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="H18" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="I18" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="J18" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="K18" t="n">
-        <v>5.427481387171886</v>
+        <v>34.32218053364124</v>
       </c>
       <c r="L18" t="n">
-        <v>72.59256355342397</v>
+        <v>48.5425881428903</v>
       </c>
       <c r="M18" t="n">
-        <v>139.7576457196761</v>
+        <v>93.44655279152933</v>
       </c>
       <c r="N18" t="n">
-        <v>206.9227278859282</v>
+        <v>160.6116349577814</v>
       </c>
       <c r="O18" t="n">
-        <v>271.3740693585943</v>
+        <v>227.8753077752403</v>
       </c>
       <c r="P18" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="Q18" t="n">
-        <v>271.3740693585943</v>
+        <v>280.0677589886056</v>
       </c>
       <c r="R18" t="n">
-        <v>211.0138975679251</v>
+        <v>280.0677589886056</v>
       </c>
       <c r="S18" t="n">
-        <v>142.4850921743407</v>
+        <v>280.0677589886056</v>
       </c>
       <c r="T18" t="n">
-        <v>73.9562867807563</v>
+        <v>280.0677589886056</v>
       </c>
       <c r="U18" t="n">
-        <v>5.427481387171886</v>
+        <v>235.4688572440417</v>
       </c>
       <c r="V18" t="n">
-        <v>5.427481387171886</v>
+        <v>235.4688572440417</v>
       </c>
       <c r="W18" t="n">
-        <v>5.427481387171886</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="X18" t="n">
-        <v>5.427481387171886</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.427481387171886</v>
+        <v>158.9980670244906</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="C19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="D19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="E19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="F19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="G19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="H19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="I19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="J19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="K19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="L19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="M19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="N19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="O19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="P19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="R19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="S19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="T19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="U19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="V19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="W19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="X19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.427481387171886</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="C20" t="n">
-        <v>5.427481387171886</v>
+        <v>82.52727680493955</v>
       </c>
       <c r="D20" t="n">
-        <v>5.427481387171886</v>
+        <v>82.52727680493955</v>
       </c>
       <c r="E20" t="n">
-        <v>5.427481387171886</v>
+        <v>82.52727680493955</v>
       </c>
       <c r="F20" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="G20" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="H20" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="I20" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="J20" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="K20" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="L20" t="n">
-        <v>55.92433645350019</v>
+        <v>64.0227783805384</v>
       </c>
       <c r="M20" t="n">
-        <v>123.0894186197523</v>
+        <v>138.9717998747205</v>
       </c>
       <c r="N20" t="n">
-        <v>190.2545007860044</v>
+        <v>213.9208213689025</v>
       </c>
       <c r="O20" t="n">
-        <v>257.4195829522565</v>
+        <v>288.8698428630846</v>
       </c>
       <c r="P20" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.8452639650098</v>
+        <v>233.9271277814825</v>
       </c>
       <c r="R20" t="n">
-        <v>202.8452639650098</v>
+        <v>233.9271277814825</v>
       </c>
       <c r="S20" t="n">
-        <v>202.8452639650098</v>
+        <v>233.9271277814825</v>
       </c>
       <c r="T20" t="n">
-        <v>202.8452639650098</v>
+        <v>233.9271277814825</v>
       </c>
       <c r="U20" t="n">
-        <v>202.8452639650098</v>
+        <v>233.9271277814825</v>
       </c>
       <c r="V20" t="n">
-        <v>142.4850921743407</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="W20" t="n">
-        <v>142.4850921743407</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="X20" t="n">
-        <v>73.9562867807563</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.427481387171886</v>
+        <v>158.9980670244906</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>65.78765317784099</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="C21" t="n">
-        <v>5.427481387171886</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="D21" t="n">
-        <v>5.427481387171886</v>
+        <v>82.52727680493955</v>
       </c>
       <c r="E21" t="n">
-        <v>5.427481387171886</v>
+        <v>82.52727680493955</v>
       </c>
       <c r="F21" t="n">
-        <v>5.427481387171886</v>
+        <v>82.52727680493955</v>
       </c>
       <c r="G21" t="n">
-        <v>5.427481387171886</v>
+        <v>82.52727680493955</v>
       </c>
       <c r="H21" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="I21" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="J21" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="K21" t="n">
-        <v>5.427481387171886</v>
+        <v>34.32218053364124</v>
       </c>
       <c r="L21" t="n">
-        <v>19.64788899642094</v>
+        <v>86.85978302020601</v>
       </c>
       <c r="M21" t="n">
-        <v>86.81297116267302</v>
+        <v>131.763747668845</v>
       </c>
       <c r="N21" t="n">
-        <v>153.9780533289251</v>
+        <v>198.9288298350971</v>
       </c>
       <c r="O21" t="n">
-        <v>221.1431354951772</v>
+        <v>227.8753077752403</v>
       </c>
       <c r="P21" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="Q21" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="R21" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="S21" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694224</v>
       </c>
       <c r="T21" t="n">
-        <v>271.3740693585943</v>
+        <v>226.3535390498713</v>
       </c>
       <c r="U21" t="n">
-        <v>271.3740693585943</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="V21" t="n">
-        <v>271.3740693585943</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="W21" t="n">
-        <v>202.8452639650098</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="X21" t="n">
-        <v>134.3164585714254</v>
+        <v>158.9980670244906</v>
       </c>
       <c r="Y21" t="n">
-        <v>65.78765317784099</v>
+        <v>158.9980670244906</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="C22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="D22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="E22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="F22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="G22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="H22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="I22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="J22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="K22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="L22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="M22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="N22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="O22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="P22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="R22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="S22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="T22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="U22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="V22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="W22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="X22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388448</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>151.4306274399588</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C23" t="n">
-        <v>73.44156492061504</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D23" t="n">
-        <v>73.44156492061504</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E23" t="n">
-        <v>73.44156492061504</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F23" t="n">
-        <v>73.44156492061504</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G23" t="n">
-        <v>73.44156492061504</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H23" t="n">
         <v>6.176733751532026</v>
@@ -6010,31 +6010,31 @@
         <v>307.4087524786464</v>
       </c>
       <c r="Q23" t="n">
-        <v>307.4087524786464</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="R23" t="n">
-        <v>307.4087524786464</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="S23" t="n">
-        <v>307.4087524786464</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="T23" t="n">
-        <v>307.4087524786464</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="U23" t="n">
-        <v>307.4087524786464</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="V23" t="n">
-        <v>307.4087524786464</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="W23" t="n">
-        <v>307.4087524786464</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="X23" t="n">
-        <v>307.4087524786464</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="Y23" t="n">
-        <v>229.4196899593026</v>
+        <v>84.1657962708758</v>
       </c>
     </row>
     <row r="24">
@@ -6047,16 +6047,16 @@
         <v>84.1657962708758</v>
       </c>
       <c r="C24" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="D24" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="E24" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="F24" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="G24" t="n">
         <v>6.176733751532026</v>
@@ -6071,49 +6071,49 @@
         <v>6.176733751532026</v>
       </c>
       <c r="K24" t="n">
-        <v>34.44242769978484</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L24" t="n">
-        <v>110.8795078749937</v>
+        <v>43.89348041129253</v>
       </c>
       <c r="M24" t="n">
-        <v>187.3165880502025</v>
+        <v>88.79744505993159</v>
       </c>
       <c r="N24" t="n">
-        <v>254.4816702164546</v>
+        <v>155.9625272261837</v>
       </c>
       <c r="O24" t="n">
-        <v>308.8366875766013</v>
+        <v>232.3996074013925</v>
       </c>
       <c r="P24" t="n">
         <v>308.8366875766013</v>
       </c>
       <c r="Q24" t="n">
-        <v>286.0801172957846</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="R24" t="n">
-        <v>286.0801172957846</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="S24" t="n">
-        <v>286.0801172957846</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="T24" t="n">
-        <v>286.0801172957846</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="U24" t="n">
-        <v>286.0801172957846</v>
+        <v>230.8476250572575</v>
       </c>
       <c r="V24" t="n">
-        <v>286.0801172957846</v>
+        <v>230.8476250572575</v>
       </c>
       <c r="W24" t="n">
-        <v>286.0801172957846</v>
+        <v>152.8585625379138</v>
       </c>
       <c r="X24" t="n">
-        <v>240.1439213095634</v>
+        <v>152.8585625379138</v>
       </c>
       <c r="Y24" t="n">
-        <v>162.1548587902196</v>
+        <v>152.8585625379138</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="M25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="N25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="O25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="P25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Q25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="R25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="S25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="T25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="U25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="V25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="W25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Y25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>162.1548587902196</v>
+        <v>229.4196899593026</v>
       </c>
       <c r="C26" t="n">
-        <v>162.1548587902196</v>
+        <v>151.4306274399588</v>
       </c>
       <c r="D26" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="E26" t="n">
-        <v>162.1548587902196</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F26" t="n">
-        <v>162.1548587902196</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G26" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H26" t="n">
         <v>6.176733751532026</v>
@@ -6259,19 +6259,19 @@
         <v>307.4087524786464</v>
       </c>
       <c r="U26" t="n">
-        <v>240.1439213095634</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="V26" t="n">
-        <v>240.1439213095634</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="W26" t="n">
-        <v>240.1439213095634</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="X26" t="n">
-        <v>162.1548587902196</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="Y26" t="n">
-        <v>162.1548587902196</v>
+        <v>307.4087524786464</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>230.8476250572575</v>
+        <v>208.0910547764408</v>
       </c>
       <c r="C27" t="n">
-        <v>230.8476250572575</v>
+        <v>208.0910547764408</v>
       </c>
       <c r="D27" t="n">
-        <v>152.8585625379138</v>
+        <v>208.0910547764408</v>
       </c>
       <c r="E27" t="n">
-        <v>74.86950001856999</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="F27" t="n">
-        <v>74.86950001856999</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="G27" t="n">
         <v>6.176733751532026</v>
@@ -6308,49 +6308,49 @@
         <v>6.176733751532026</v>
       </c>
       <c r="K27" t="n">
-        <v>34.44242769978484</v>
+        <v>14.94700247114929</v>
       </c>
       <c r="L27" t="n">
-        <v>110.8795078749937</v>
+        <v>91.38408264635811</v>
       </c>
       <c r="M27" t="n">
-        <v>165.2345252351404</v>
+        <v>136.2880472949972</v>
       </c>
       <c r="N27" t="n">
+        <v>203.4531294612493</v>
+      </c>
+      <c r="O27" t="n">
         <v>232.3996074013925</v>
-      </c>
-      <c r="O27" t="n">
-        <v>308.8366875766013</v>
       </c>
       <c r="P27" t="n">
         <v>308.8366875766013</v>
       </c>
       <c r="Q27" t="n">
-        <v>308.8366875766013</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="R27" t="n">
-        <v>308.8366875766013</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="S27" t="n">
-        <v>308.8366875766013</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="T27" t="n">
-        <v>308.8366875766013</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="U27" t="n">
-        <v>308.8366875766013</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="V27" t="n">
-        <v>308.8366875766013</v>
+        <v>208.0910547764408</v>
       </c>
       <c r="W27" t="n">
-        <v>308.8366875766013</v>
+        <v>208.0910547764408</v>
       </c>
       <c r="X27" t="n">
-        <v>308.8366875766013</v>
+        <v>208.0910547764408</v>
       </c>
       <c r="Y27" t="n">
-        <v>308.8366875766013</v>
+        <v>208.0910547764408</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="M28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="N28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="O28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="P28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Q28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="R28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="S28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="T28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="U28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="V28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="W28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Y28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="C29" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="D29" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="E29" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="F29" t="n">
         <v>84.1657962708758</v>
@@ -6484,31 +6484,31 @@
         <v>307.4087524786464</v>
       </c>
       <c r="Q29" t="n">
-        <v>307.4087524786464</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="R29" t="n">
-        <v>229.4196899593026</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="S29" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="T29" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="U29" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="V29" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="W29" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="X29" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="Y29" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.176733751532026</v>
+        <v>74.86950001856999</v>
       </c>
       <c r="C30" t="n">
-        <v>6.176733751532026</v>
+        <v>74.86950001856999</v>
       </c>
       <c r="D30" t="n">
-        <v>6.176733751532026</v>
+        <v>74.86950001856999</v>
       </c>
       <c r="E30" t="n">
-        <v>6.176733751532026</v>
+        <v>74.86950001856999</v>
       </c>
       <c r="F30" t="n">
-        <v>6.176733751532026</v>
+        <v>74.86950001856999</v>
       </c>
       <c r="G30" t="n">
         <v>6.176733751532026</v>
@@ -6557,7 +6557,7 @@
         <v>160.7318821239251</v>
       </c>
       <c r="O30" t="n">
-        <v>237.1689622991339</v>
+        <v>232.3996074013925</v>
       </c>
       <c r="P30" t="n">
         <v>308.8366875766013</v>
@@ -6566,19 +6566,19 @@
         <v>308.8366875766013</v>
       </c>
       <c r="R30" t="n">
+        <v>308.8366875766013</v>
+      </c>
+      <c r="S30" t="n">
+        <v>308.8366875766013</v>
+      </c>
+      <c r="T30" t="n">
+        <v>308.8366875766013</v>
+      </c>
+      <c r="U30" t="n">
         <v>230.8476250572575</v>
       </c>
-      <c r="S30" t="n">
-        <v>152.8585625379138</v>
-      </c>
-      <c r="T30" t="n">
-        <v>152.8585625379138</v>
-      </c>
-      <c r="U30" t="n">
-        <v>152.8585625379138</v>
-      </c>
       <c r="V30" t="n">
-        <v>152.8585625379138</v>
+        <v>230.8476250572575</v>
       </c>
       <c r="W30" t="n">
         <v>152.8585625379138</v>
@@ -6587,7 +6587,7 @@
         <v>152.8585625379138</v>
       </c>
       <c r="Y30" t="n">
-        <v>74.86950001856999</v>
+        <v>152.8585625379138</v>
       </c>
     </row>
     <row r="31">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.1548587902196</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C32" t="n">
-        <v>162.1548587902196</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D32" t="n">
-        <v>162.1548587902196</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E32" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F32" t="n">
         <v>6.176733751532026</v>
@@ -6721,31 +6721,31 @@
         <v>307.4087524786464</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.1439213095634</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="R32" t="n">
-        <v>240.1439213095634</v>
+        <v>229.4196899593026</v>
       </c>
       <c r="S32" t="n">
-        <v>240.1439213095634</v>
+        <v>151.4306274399588</v>
       </c>
       <c r="T32" t="n">
-        <v>240.1439213095634</v>
+        <v>151.4306274399588</v>
       </c>
       <c r="U32" t="n">
-        <v>240.1439213095634</v>
+        <v>151.4306274399588</v>
       </c>
       <c r="V32" t="n">
-        <v>240.1439213095634</v>
+        <v>73.44156492061504</v>
       </c>
       <c r="W32" t="n">
-        <v>240.1439213095634</v>
+        <v>73.44156492061504</v>
       </c>
       <c r="X32" t="n">
-        <v>162.1548587902196</v>
+        <v>73.44156492061504</v>
       </c>
       <c r="Y32" t="n">
-        <v>162.1548587902196</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="C33" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="D33" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="E33" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="F33" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="G33" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="H33" t="n">
         <v>6.176733751532026</v>
@@ -6782,13 +6782,13 @@
         <v>6.176733751532026</v>
       </c>
       <c r="K33" t="n">
-        <v>6.176733751532026</v>
+        <v>34.44242769978484</v>
       </c>
       <c r="L33" t="n">
-        <v>82.61381392674085</v>
+        <v>110.8795078749937</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0508941019497</v>
+        <v>165.2345252351404</v>
       </c>
       <c r="N33" t="n">
         <v>232.3996074013925</v>
@@ -6800,22 +6800,22 @@
         <v>308.8366875766013</v>
       </c>
       <c r="Q33" t="n">
-        <v>308.8366875766013</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="R33" t="n">
-        <v>308.8366875766013</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="S33" t="n">
-        <v>308.8366875766013</v>
+        <v>208.0910547764408</v>
       </c>
       <c r="T33" t="n">
-        <v>308.8366875766013</v>
+        <v>130.101992257097</v>
       </c>
       <c r="U33" t="n">
-        <v>240.1439213095634</v>
+        <v>130.101992257097</v>
       </c>
       <c r="V33" t="n">
-        <v>162.1548587902196</v>
+        <v>130.101992257097</v>
       </c>
       <c r="W33" t="n">
         <v>84.1657962708758</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="M34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="N34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="O34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="P34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Q34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="R34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="S34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="T34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="U34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="V34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="W34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Y34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>226.3535390498716</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="C35" t="n">
-        <v>226.3535390498716</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="D35" t="n">
-        <v>149.8827488303204</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="E35" t="n">
-        <v>73.41195861076919</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="F35" t="n">
         <v>6.056486585388456</v>
@@ -6958,31 +6958,31 @@
         <v>302.8243292694228</v>
       </c>
       <c r="Q35" t="n">
-        <v>302.8243292694228</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="R35" t="n">
-        <v>302.8243292694228</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="S35" t="n">
-        <v>302.8243292694228</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="T35" t="n">
-        <v>302.8243292694228</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="U35" t="n">
-        <v>302.8243292694228</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="V35" t="n">
-        <v>302.8243292694228</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="W35" t="n">
-        <v>302.8243292694228</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="X35" t="n">
-        <v>302.8243292694228</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="Y35" t="n">
-        <v>226.3535390498716</v>
+        <v>158.9980670244909</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>50.65538832995244</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="C36" t="n">
-        <v>50.65538832995244</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="D36" t="n">
-        <v>6.056486585388456</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="E36" t="n">
-        <v>6.056486585388456</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="F36" t="n">
-        <v>6.056486585388456</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="G36" t="n">
         <v>6.056486585388456</v>
@@ -7025,43 +7025,43 @@
         <v>81.00550807957059</v>
       </c>
       <c r="M36" t="n">
-        <v>125.9094727282096</v>
+        <v>131.7637476688453</v>
       </c>
       <c r="N36" t="n">
-        <v>193.0745548944618</v>
+        <v>198.9288298350974</v>
       </c>
       <c r="O36" t="n">
-        <v>268.0235763886439</v>
+        <v>227.8753077752406</v>
       </c>
       <c r="P36" t="n">
         <v>302.8243292694228</v>
       </c>
       <c r="Q36" t="n">
-        <v>280.067758988606</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R36" t="n">
-        <v>203.5969687690549</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S36" t="n">
-        <v>203.5969687690549</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T36" t="n">
-        <v>203.5969687690549</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U36" t="n">
-        <v>203.5969687690549</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="V36" t="n">
-        <v>203.5969687690549</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="W36" t="n">
-        <v>203.5969687690549</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="X36" t="n">
-        <v>127.1261785495036</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="Y36" t="n">
-        <v>50.65538832995244</v>
+        <v>235.4688572440421</v>
       </c>
     </row>
     <row r="37">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>217.3951385381698</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="C38" t="n">
-        <v>217.3951385381698</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="D38" t="n">
-        <v>146.7939633828796</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="E38" t="n">
-        <v>146.7939633828796</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="F38" t="n">
-        <v>146.7939633828796</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7939633828796</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="H38" t="n">
-        <v>76.19278822758926</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I38" t="n">
-        <v>5.59161307229899</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J38" t="n">
-        <v>5.59161307229899</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K38" t="n">
-        <v>5.59161307229899</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L38" t="n">
-        <v>63.557904867449</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M38" t="n">
-        <v>132.754116637149</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N38" t="n">
-        <v>201.950328406849</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O38" t="n">
-        <v>265.6261672086116</v>
+        <v>288.8698428630849</v>
       </c>
       <c r="P38" t="n">
-        <v>279.5806536149495</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q38" t="n">
-        <v>217.3951385381698</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R38" t="n">
-        <v>217.3951385381698</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S38" t="n">
-        <v>217.3951385381698</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3951385381698</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U38" t="n">
-        <v>217.3951385381698</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="V38" t="n">
-        <v>217.3951385381698</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="W38" t="n">
-        <v>217.3951385381698</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="X38" t="n">
-        <v>217.3951385381698</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="Y38" t="n">
-        <v>217.3951385381698</v>
+        <v>235.4688572440421</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>45.02055786826193</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="C39" t="n">
-        <v>45.02055786826193</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="D39" t="n">
-        <v>45.02055786826193</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="E39" t="n">
-        <v>45.02055786826193</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="F39" t="n">
-        <v>5.59161307229899</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="G39" t="n">
-        <v>5.59161307229899</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H39" t="n">
-        <v>5.59161307229899</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I39" t="n">
-        <v>5.59161307229899</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J39" t="n">
-        <v>5.59161307229899</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K39" t="n">
-        <v>33.85730702055181</v>
+        <v>34.32218053364127</v>
       </c>
       <c r="L39" t="n">
-        <v>69.36891709021509</v>
+        <v>48.54258814289035</v>
       </c>
       <c r="M39" t="n">
-        <v>114.2728817388542</v>
+        <v>93.44655279152941</v>
       </c>
       <c r="N39" t="n">
-        <v>181.4379639051062</v>
+        <v>160.6116349577815</v>
       </c>
       <c r="O39" t="n">
-        <v>210.3844418452495</v>
+        <v>235.5606564519637</v>
       </c>
       <c r="P39" t="n">
-        <v>279.5806536149495</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q39" t="n">
-        <v>256.8240833341328</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R39" t="n">
-        <v>256.8240833341328</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S39" t="n">
-        <v>256.8240833341328</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T39" t="n">
-        <v>256.8240833341328</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="U39" t="n">
-        <v>256.8240833341328</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="V39" t="n">
-        <v>256.8240833341328</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="W39" t="n">
-        <v>186.2229081788425</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="X39" t="n">
-        <v>115.6217330235522</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="Y39" t="n">
-        <v>45.02055786826193</v>
+        <v>235.4688572440421</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y40" t="n">
-        <v>279.5806536149495</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>49.44430022325403</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C41" t="n">
-        <v>49.44430022325403</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D41" t="n">
         <v>3.628603203930429</v>
@@ -7417,13 +7417,13 @@
         <v>3.628603203930429</v>
       </c>
       <c r="L41" t="n">
-        <v>32.76377984426648</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M41" t="n">
-        <v>77.66774449290554</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N41" t="n">
-        <v>122.5717091415446</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O41" t="n">
         <v>167.4756737901837</v>
@@ -7432,31 +7432,31 @@
         <v>181.4301601965215</v>
       </c>
       <c r="Q41" t="n">
-        <v>135.6144631771978</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R41" t="n">
-        <v>135.6144631771978</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="S41" t="n">
-        <v>135.6144631771978</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="T41" t="n">
-        <v>135.6144631771978</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="U41" t="n">
-        <v>135.6144631771978</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="V41" t="n">
-        <v>135.6144631771978</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="W41" t="n">
-        <v>89.79876615787424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X41" t="n">
-        <v>89.79876615787424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y41" t="n">
-        <v>49.44430022325403</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.44430022325403</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C42" t="n">
         <v>3.628603203930429</v>
@@ -7496,46 +7496,46 @@
         <v>3.628603203930429</v>
       </c>
       <c r="L42" t="n">
-        <v>46.71826625060427</v>
+        <v>17.84901081317948</v>
       </c>
       <c r="M42" t="n">
-        <v>91.62223089924333</v>
+        <v>62.75297546181852</v>
       </c>
       <c r="N42" t="n">
-        <v>136.5261955478824</v>
+        <v>107.6569401104576</v>
       </c>
       <c r="O42" t="n">
-        <v>181.4301601965215</v>
+        <v>136.6034180506008</v>
       </c>
       <c r="P42" t="n">
         <v>181.4301601965215</v>
       </c>
       <c r="Q42" t="n">
-        <v>181.4301601965215</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="R42" t="n">
-        <v>181.4301601965215</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="S42" t="n">
-        <v>181.4301601965215</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="T42" t="n">
-        <v>181.4301601965215</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="U42" t="n">
-        <v>181.4301601965215</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="V42" t="n">
-        <v>181.4301601965215</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="W42" t="n">
-        <v>135.6144631771978</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X42" t="n">
-        <v>95.25999724257764</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.44430022325403</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="43">
@@ -7660,10 +7660,10 @@
         <v>93.43653250120855</v>
       </c>
       <c r="N44" t="n">
-        <v>122.5717091415446</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O44" t="n">
-        <v>167.4756737901837</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="P44" t="n">
         <v>181.4301601965215</v>
@@ -7672,7 +7672,7 @@
         <v>181.4301601965215</v>
       </c>
       <c r="R44" t="n">
-        <v>181.4301601965215</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="S44" t="n">
         <v>135.6144631771978</v>
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>112.8578928963811</v>
+      </c>
+      <c r="C45" t="n">
         <v>67.04219587705748</v>
       </c>
-      <c r="C45" t="n">
-        <v>21.22649885773388</v>
-      </c>
       <c r="D45" t="n">
-        <v>21.22649885773388</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="E45" t="n">
-        <v>21.22649885773388</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="F45" t="n">
-        <v>21.22649885773388</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="G45" t="n">
-        <v>21.22649885773388</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H45" t="n">
-        <v>21.22649885773388</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I45" t="n">
-        <v>21.22649885773388</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J45" t="n">
         <v>3.628603203930429</v>
@@ -7733,16 +7733,16 @@
         <v>3.628603203930429</v>
       </c>
       <c r="L45" t="n">
-        <v>48.53256785256949</v>
+        <v>17.84901081317951</v>
       </c>
       <c r="M45" t="n">
-        <v>93.43653250120852</v>
+        <v>62.75297546181857</v>
       </c>
       <c r="N45" t="n">
-        <v>138.3404971498476</v>
+        <v>107.6569401104576</v>
       </c>
       <c r="O45" t="n">
-        <v>181.4301601965215</v>
+        <v>136.6034180506009</v>
       </c>
       <c r="P45" t="n">
         <v>181.4301601965215</v>
@@ -7760,19 +7760,19 @@
         <v>158.6735899157047</v>
       </c>
       <c r="U45" t="n">
-        <v>158.6735899157047</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="V45" t="n">
         <v>112.8578928963811</v>
       </c>
       <c r="W45" t="n">
-        <v>67.04219587705748</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="X45" t="n">
-        <v>67.04219587705748</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="Y45" t="n">
-        <v>67.04219587705748</v>
+        <v>112.8578928963811</v>
       </c>
     </row>
     <row r="46">
@@ -7990,7 +7990,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N2" t="n">
-        <v>111.9488011414238</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8063,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>57.07593346819698</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M3" t="n">
-        <v>38.00954882322068</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N3" t="n">
-        <v>17.73005030863851</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O3" t="n">
-        <v>49.04422963853119</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P3" t="n">
-        <v>67.92252959633595</v>
+        <v>68.93110769910051</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8300,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>57.07593346819698</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M6" t="n">
-        <v>38.00954882322065</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N6" t="n">
-        <v>17.73005030863848</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O6" t="n">
-        <v>49.04422963853116</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P6" t="n">
-        <v>67.92252959633595</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8461,7 +8461,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>116.8735187081364</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N8" t="n">
         <v>111.9488011414238</v>
@@ -8540,13 +8540,13 @@
         <v>57.07593346819698</v>
       </c>
       <c r="M9" t="n">
-        <v>38.00954882322065</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N9" t="n">
-        <v>17.73005030863848</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O9" t="n">
-        <v>49.04422963853116</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P9" t="n">
         <v>67.92252959633595</v>
@@ -8695,19 +8695,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>96.6874241274368</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>56.57358358590969</v>
+        <v>71.20691086657069</v>
       </c>
       <c r="N11" t="n">
-        <v>50.06644213083294</v>
+        <v>64.80932742416979</v>
       </c>
       <c r="O11" t="n">
-        <v>67.55072419496852</v>
+        <v>83.425129031545</v>
       </c>
       <c r="P11" t="n">
-        <v>77.91224762987054</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8771,10 +8771,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>45.22059263733766</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L12" t="n">
-        <v>28.35366724585604</v>
+        <v>16.31230068813228</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>15.63918899742632</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>11.01901633123285</v>
+        <v>60.31623137733467</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8932,19 +8932,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>95.73419874924133</v>
+        <v>90.07603995008432</v>
       </c>
       <c r="M14" t="n">
-        <v>54.8580886638108</v>
+        <v>60.42729726992593</v>
       </c>
       <c r="N14" t="n">
-        <v>48.22916196424876</v>
+        <v>53.85528840979231</v>
       </c>
       <c r="O14" t="n">
-        <v>65.90488099197344</v>
+        <v>73.08154061024453</v>
       </c>
       <c r="P14" t="n">
-        <v>71.74845690798986</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9008,10 +9008,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>41.51727600859115</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L15" t="n">
-        <v>30.69996842220129</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>14.24382439132927</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>6.639653553647321</v>
+        <v>41.7825971933246</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9169,16 +9169,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>101.0470301984488</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>76.73838061312767</v>
+        <v>84.60094559083467</v>
       </c>
       <c r="N17" t="n">
-        <v>70.06645551327364</v>
+        <v>77.92902049098063</v>
       </c>
       <c r="O17" t="n">
-        <v>89.64239257381212</v>
+        <v>97.50495755151911</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9245,22 +9245,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>40.20975561493429</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>53.47946924949801</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>22.48597729051824</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>35.8634985176999</v>
+        <v>38.70423724981386</v>
       </c>
       <c r="P18" t="n">
-        <v>5.093443300258059</v>
+        <v>80.79952561761365</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9406,16 +9406,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>101.0470301984488</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>76.73838061312767</v>
+        <v>84.60094559083467</v>
       </c>
       <c r="N20" t="n">
-        <v>70.06645551327364</v>
+        <v>77.92902049098063</v>
       </c>
       <c r="O20" t="n">
-        <v>89.64239257381212</v>
+        <v>97.50495755151911</v>
       </c>
       <c r="P20" t="n">
         <v>83.66766412458549</v>
@@ -9482,22 +9482,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>40.20975561493429</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>38.70423724981386</v>
       </c>
       <c r="M21" t="n">
-        <v>22.48597729051824</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>38.60465073344329</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>55.83176033401269</v>
+        <v>80.79952561761365</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9719,22 +9719,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L24" t="n">
-        <v>62.84512380399974</v>
+        <v>23.7336758085974</v>
       </c>
       <c r="M24" t="n">
-        <v>31.85163184501997</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>25.66519133333686</v>
+        <v>47.97030528794502</v>
       </c>
       <c r="P24" t="n">
-        <v>5.093443300258059</v>
+        <v>82.30261519440836</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9956,22 +9956,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>68.76096162327045</v>
+        <v>49.06861290747696</v>
       </c>
       <c r="L27" t="n">
         <v>62.84512380399974</v>
       </c>
       <c r="M27" t="n">
-        <v>9.546517890411806</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>47.97030528794502</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>5.093443300258059</v>
+        <v>82.30261519440836</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>47.97030528794502</v>
+        <v>43.15277508820625</v>
       </c>
       <c r="P30" t="n">
-        <v>77.48508499466962</v>
+        <v>82.30261519440836</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10430,16 +10430,16 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
         <v>62.84512380399974</v>
       </c>
       <c r="M33" t="n">
-        <v>31.85163184501997</v>
+        <v>9.546517890411806</v>
       </c>
       <c r="N33" t="n">
-        <v>6.246092053728034</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>47.97030528794502</v>
@@ -10673,16 +10673,16 @@
         <v>61.3420342272051</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>5.913409030945068</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>46.46721571115039</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>40.24571893740843</v>
+        <v>80.79952561761377</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10831,13 +10831,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>78.79002667721645</v>
+        <v>84.60094559083477</v>
       </c>
       <c r="N38" t="n">
-        <v>72.11810157736235</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O38" t="n">
-        <v>86.11790432685297</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10907,7 +10907,7 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>21.50626511152949</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>46.46721571115039</v>
       </c>
       <c r="P39" t="n">
-        <v>74.98860670399546</v>
+        <v>73.03654715627736</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11065,7 +11065,7 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>79.46957724290102</v>
+        <v>95.39764593815659</v>
       </c>
       <c r="M41" t="n">
         <v>54.25240332260944</v>
@@ -11074,7 +11074,7 @@
         <v>47.5804782227554</v>
       </c>
       <c r="O41" t="n">
-        <v>67.15641528329388</v>
+        <v>51.22834658803832</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11144,7 +11144,7 @@
         <v>40.20975561493429</v>
       </c>
       <c r="L42" t="n">
-        <v>29.16086407820686</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>16.11867344292509</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>5.093443300258059</v>
+        <v>50.37298082139004</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11302,19 +11302,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>95.39764593815659</v>
+        <v>95.39764593815653</v>
       </c>
       <c r="M44" t="n">
         <v>54.25240332260944</v>
       </c>
       <c r="N44" t="n">
-        <v>31.65240952749984</v>
+        <v>47.58047822275535</v>
       </c>
       <c r="O44" t="n">
-        <v>67.15641528329388</v>
+        <v>65.32378740252088</v>
       </c>
       <c r="P44" t="n">
-        <v>83.66766412458549</v>
+        <v>69.5722233101028</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11378,10 +11378,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>40.20975561493429</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L45" t="n">
-        <v>30.9934919589798</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>14.28604556215218</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>5.093443300258059</v>
+        <v>50.37298082138992</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22561,49 +22561,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.3372670711946</v>
+        <v>422.3471385867855</v>
       </c>
       <c r="H2" t="n">
-        <v>351.2646082720821</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I2" t="n">
-        <v>259.3256225831108</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J2" t="n">
-        <v>114.4715681708149</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K2" t="n">
-        <v>78.22308851520961</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L2" t="n">
-        <v>38.49084836766588</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.40184904719004</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P2" t="n">
-        <v>74.33416843326191</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.6151832766775</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R2" t="n">
-        <v>219.5016765828794</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S2" t="n">
-        <v>238.8380493076577</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T2" t="n">
-        <v>220.0295900296067</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U2" t="n">
-        <v>248.8013691764946</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22640,19 +22640,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0988061285559</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H3" t="n">
-        <v>138.5600717100643</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I3" t="n">
-        <v>119.8373846403433</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J3" t="n">
-        <v>89.37922894870135</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K3" t="n">
-        <v>24.57889804244016</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22670,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.52858488856606</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R3" t="n">
-        <v>159.5976691093343</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S3" t="n">
-        <v>209.5797834947361</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T3" t="n">
-        <v>230.4332280611984</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22719,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.30467002737</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H4" t="n">
-        <v>168.2025540396188</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I4" t="n">
-        <v>169.8493025891331</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J4" t="n">
-        <v>137.2497006419296</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K4" t="n">
-        <v>95.63058149505842</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L4" t="n">
-        <v>71.46654840866277</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M4" t="n">
-        <v>68.66533643318368</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N4" t="n">
-        <v>56.06123914516952</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O4" t="n">
-        <v>80.66114959698193</v>
+        <v>81.28703038709219</v>
       </c>
       <c r="P4" t="n">
-        <v>98.35025284028562</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q4" t="n">
-        <v>157.5243583765053</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R4" t="n">
-        <v>224.2138859994434</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S4" t="n">
-        <v>244.9169435351811</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T4" t="n">
-        <v>218.3869624620415</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2234139120339</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22810,10 +22810,10 @@
         <v>114.4715681708149</v>
       </c>
       <c r="K5" t="n">
-        <v>78.22308851520961</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L5" t="n">
-        <v>38.49084836766585</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,10 +22822,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>26.40184904719004</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P5" t="n">
-        <v>74.33416843326191</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q5" t="n">
         <v>134.6151832766775</v>
@@ -22889,7 +22889,7 @@
         <v>89.37922894870135</v>
       </c>
       <c r="K6" t="n">
-        <v>24.57889804244016</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.52858488856606</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R6" t="n">
         <v>159.5976691093343</v>
@@ -22968,22 +22968,22 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K7" t="n">
-        <v>95.63058149505841</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L7" t="n">
-        <v>71.46654840866277</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M7" t="n">
-        <v>68.66533643318368</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N7" t="n">
-        <v>56.06123914516951</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O7" t="n">
-        <v>80.66114959698193</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P7" t="n">
-        <v>98.35025284028561</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q7" t="n">
         <v>157.5243583765053</v>
@@ -23050,7 +23050,7 @@
         <v>78.22308851520961</v>
       </c>
       <c r="L8" t="n">
-        <v>38.49084836766585</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23205,7 +23205,7 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K10" t="n">
-        <v>95.63058149505841</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L10" t="n">
         <v>71.46654840866277</v>
@@ -23214,13 +23214,13 @@
         <v>68.66533643318368</v>
       </c>
       <c r="N10" t="n">
-        <v>56.06123914516951</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O10" t="n">
         <v>80.66114959698193</v>
       </c>
       <c r="P10" t="n">
-        <v>98.35025284028561</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q10" t="n">
         <v>157.5243583765053</v>
@@ -23269,22 +23269,22 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F11" t="n">
-        <v>399.146417573369</v>
+        <v>353.7888775242387</v>
       </c>
       <c r="G11" t="n">
-        <v>388.7547466531458</v>
+        <v>394.1503305679663</v>
       </c>
       <c r="H11" t="n">
-        <v>308.0658061362652</v>
+        <v>345.9556816906859</v>
       </c>
       <c r="I11" t="n">
-        <v>200.358972384136</v>
+        <v>239.3405238862449</v>
       </c>
       <c r="J11" t="n">
-        <v>29.70646569242632</v>
+        <v>70.47415501931692</v>
       </c>
       <c r="K11" t="n">
-        <v>7.377421048604589</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23302,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>74.47124040837096</v>
+        <v>78.63526428566053</v>
       </c>
       <c r="R11" t="n">
-        <v>184.5163938455455</v>
+        <v>186.9385754605914</v>
       </c>
       <c r="S11" t="n">
-        <v>226.1466337841746</v>
+        <v>227.0253150736953</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5915572724352</v>
+        <v>217.7603527675477</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7568134664834</v>
+        <v>248.7598982499464</v>
       </c>
       <c r="V11" t="n">
-        <v>313.3044420010231</v>
+        <v>267.9469019518928</v>
       </c>
       <c r="W11" t="n">
         <v>325.3917254792934</v>
@@ -23326,7 +23326,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.9289763951821</v>
+        <v>332.5714363460518</v>
       </c>
     </row>
     <row r="12">
@@ -23342,25 +23342,25 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D12" t="n">
-        <v>172.0989423795122</v>
+        <v>126.7414023303819</v>
       </c>
       <c r="E12" t="n">
-        <v>187.4605452976028</v>
+        <v>142.1030052484725</v>
       </c>
       <c r="F12" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.800813546801</v>
+        <v>160.8214448550676</v>
       </c>
       <c r="H12" t="n">
-        <v>135.682090723116</v>
+        <v>135.8813457266378</v>
       </c>
       <c r="I12" t="n">
-        <v>109.5775523299235</v>
+        <v>110.2878846540134</v>
       </c>
       <c r="J12" t="n">
-        <v>61.22546489790466</v>
+        <v>63.17467108812387</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,25 +23381,25 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.49009322455851</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>141.0959893403784</v>
+        <v>97.01940016765792</v>
       </c>
       <c r="S12" t="n">
-        <v>204.0447019871402</v>
+        <v>204.4279194893721</v>
       </c>
       <c r="T12" t="n">
-        <v>191.7371337677018</v>
+        <v>229.3152674895503</v>
       </c>
       <c r="U12" t="n">
-        <v>212.1404903997232</v>
+        <v>238.8095631459309</v>
       </c>
       <c r="V12" t="n">
-        <v>211.8049501087492</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W12" t="n">
-        <v>250.2236827200215</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X12" t="n">
         <v>230.033063710963</v>
@@ -23430,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0548430570463</v>
+        <v>169.0721396528464</v>
       </c>
       <c r="H13" t="n">
-        <v>165.9813651580137</v>
+        <v>166.1351476188548</v>
       </c>
       <c r="I13" t="n">
-        <v>162.3363242452173</v>
+        <v>162.856480053461</v>
       </c>
       <c r="J13" t="n">
-        <v>119.5869338400453</v>
+        <v>120.8098031631139</v>
       </c>
       <c r="K13" t="n">
-        <v>66.60522985199785</v>
+        <v>68.61477980041201</v>
       </c>
       <c r="L13" t="n">
-        <v>34.32409138435817</v>
+        <v>36.8956234544963</v>
       </c>
       <c r="M13" t="n">
-        <v>29.50382325780861</v>
+        <v>32.2151432703677</v>
       </c>
       <c r="N13" t="n">
-        <v>17.83089922281904</v>
+        <v>20.4777501055777</v>
       </c>
       <c r="O13" t="n">
-        <v>45.34924291886722</v>
+        <v>47.79403811432444</v>
       </c>
       <c r="P13" t="n">
-        <v>68.13481635677405</v>
+        <v>70.22676099790878</v>
       </c>
       <c r="Q13" t="n">
-        <v>136.6047563433104</v>
+        <v>138.0531103789006</v>
       </c>
       <c r="R13" t="n">
-        <v>212.9807569519803</v>
+        <v>213.7584747958658</v>
       </c>
       <c r="S13" t="n">
-        <v>240.5631407887221</v>
+        <v>240.8645732809842</v>
       </c>
       <c r="T13" t="n">
-        <v>217.3195199524767</v>
+        <v>217.3934235890772</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2097869863799</v>
+        <v>291.2107304370599</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23500,7 +23500,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D14" t="n">
-        <v>319.1317556432476</v>
+        <v>273.7742155941173</v>
       </c>
       <c r="E14" t="n">
         <v>359.9585549362873</v>
@@ -23509,19 +23509,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.7374574335881</v>
+        <v>376.3999500600155</v>
       </c>
       <c r="H14" t="n">
-        <v>345.1218078209449</v>
+        <v>345.3269674595005</v>
       </c>
       <c r="I14" t="n">
-        <v>236.2014615292873</v>
+        <v>236.9737712537267</v>
       </c>
       <c r="J14" t="n">
-        <v>63.56347494101269</v>
+        <v>65.26372323813064</v>
       </c>
       <c r="K14" t="n">
-        <v>1.925053325525482</v>
+        <v>4.473284779002199</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>69.8424902736017</v>
+        <v>72.00579386623662</v>
       </c>
       <c r="R14" t="n">
-        <v>138.5179904495403</v>
+        <v>183.0822619905852</v>
       </c>
       <c r="S14" t="n">
-        <v>181.8639932056586</v>
+        <v>225.626381784972</v>
       </c>
       <c r="T14" t="n">
-        <v>174.0980293559428</v>
+        <v>217.4916163782383</v>
       </c>
       <c r="U14" t="n">
-        <v>210.6095529834615</v>
+        <v>208.8040657442567</v>
       </c>
       <c r="V14" t="n">
-        <v>313.3044420010231</v>
+        <v>267.9469019518928</v>
       </c>
       <c r="W14" t="n">
         <v>325.3917254792934</v>
@@ -23576,7 +23576,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C15" t="n">
-        <v>203.8424276152394</v>
+        <v>163.8915063399654</v>
       </c>
       <c r="D15" t="n">
         <v>172.0989423795122</v>
@@ -23585,19 +23585,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F15" t="n">
-        <v>135.8405167032993</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>117.4719856944874</v>
+        <v>160.7885981058899</v>
       </c>
       <c r="H15" t="n">
-        <v>92.15470386205249</v>
+        <v>135.5641152806323</v>
       </c>
       <c r="I15" t="n">
-        <v>65.48204931819153</v>
+        <v>109.1569768424136</v>
       </c>
       <c r="J15" t="n">
-        <v>59.05871737638392</v>
+        <v>60.07137361428047</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,25 +23618,25 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>23.56260518471173</v>
+        <v>24.9308029075538</v>
       </c>
       <c r="R15" t="n">
-        <v>139.6720778267696</v>
+        <v>140.3375604739849</v>
       </c>
       <c r="S15" t="n">
-        <v>203.618715461276</v>
+        <v>203.8178055298658</v>
       </c>
       <c r="T15" t="n">
-        <v>229.1396692600768</v>
+        <v>229.182872040014</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6339566640891</v>
+        <v>204.2771217745878</v>
       </c>
       <c r="V15" t="n">
-        <v>249.2999251801724</v>
+        <v>203.9423851310421</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2492567629311</v>
+        <v>237.8917167138008</v>
       </c>
       <c r="X15" t="n">
         <v>230.033063710963</v>
@@ -23667,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.035616073124</v>
+        <v>169.0446020417297</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8104197918678</v>
+        <v>165.890313221835</v>
       </c>
       <c r="I16" t="n">
-        <v>161.7581164014438</v>
+        <v>162.0283489846047</v>
       </c>
       <c r="J16" t="n">
-        <v>118.2275860767362</v>
+        <v>118.86289405716</v>
       </c>
       <c r="K16" t="n">
-        <v>64.37140390174841</v>
+        <v>65.41541007248473</v>
       </c>
       <c r="L16" t="n">
-        <v>31.46556324739579</v>
+        <v>32.80153170719406</v>
       </c>
       <c r="M16" t="n">
-        <v>26.48990613260116</v>
+        <v>27.89849755685833</v>
       </c>
       <c r="N16" t="n">
-        <v>14.88864631041304</v>
+        <v>16.26374457895798</v>
       </c>
       <c r="O16" t="n">
-        <v>42.63159613682667</v>
+        <v>43.90172195393217</v>
       </c>
       <c r="P16" t="n">
-        <v>65.80940004674913</v>
+        <v>66.89621210429812</v>
       </c>
       <c r="Q16" t="n">
-        <v>134.9947586259593</v>
+        <v>135.7472109607521</v>
       </c>
       <c r="R16" t="n">
-        <v>212.116241838527</v>
+        <v>212.5202836632893</v>
       </c>
       <c r="S16" t="n">
-        <v>240.2280668961846</v>
+        <v>240.3846678217951</v>
       </c>
       <c r="T16" t="n">
-        <v>217.2373682938994</v>
+        <v>217.2757628870329</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2087382418023</v>
+        <v>291.2092283855444</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23743,19 +23743,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F17" t="n">
-        <v>399.146417573369</v>
+        <v>323.4403352560134</v>
       </c>
       <c r="G17" t="n">
-        <v>353.8788064730712</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H17" t="n">
-        <v>279.6457610006586</v>
+        <v>269.2607383088719</v>
       </c>
       <c r="I17" t="n">
-        <v>167.7745052711138</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7521737158166</v>
+        <v>182.0702564106898</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23800,7 +23800,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.9289763951821</v>
+        <v>302.2228940778265</v>
       </c>
     </row>
     <row r="18">
@@ -23816,7 +23816,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D18" t="n">
-        <v>172.0989423795122</v>
+        <v>96.39286006215661</v>
       </c>
       <c r="E18" t="n">
         <v>187.4605452976028</v>
@@ -23825,7 +23825,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7697824785144</v>
+        <v>85.06370016115883</v>
       </c>
       <c r="H18" t="n">
         <v>135.3823959320322</v>
@@ -23855,25 +23855,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>79.41277101031251</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S18" t="n">
-        <v>135.6247961641856</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T18" t="n">
-        <v>161.2635145180932</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U18" t="n">
-        <v>181.7899066138474</v>
+        <v>205.4805112263778</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2492567629311</v>
+        <v>207.5431744455755</v>
       </c>
       <c r="X18" t="n">
         <v>230.033063710963</v>
@@ -23971,7 +23971,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C20" t="n">
-        <v>333.5971194742085</v>
+        <v>257.8910371568529</v>
       </c>
       <c r="D20" t="n">
         <v>319.1317556432476</v>
@@ -23980,7 +23980,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F20" t="n">
-        <v>399.146417573369</v>
+        <v>323.4403352560134</v>
       </c>
       <c r="G20" t="n">
         <v>421.7223238127198</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3647121334119561</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>180.8732471227138</v>
@@ -24028,16 +24028,16 @@
         <v>248.7521737158166</v>
       </c>
       <c r="V20" t="n">
-        <v>253.5478719282607</v>
+        <v>239.1246718516012</v>
       </c>
       <c r="W20" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X20" t="n">
-        <v>280.9733619638644</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y20" t="n">
-        <v>310.0854590555335</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="21">
@@ -24050,10 +24050,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C21" t="n">
-        <v>144.085857542477</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
-        <v>172.0989423795122</v>
+        <v>96.39286006215661</v>
       </c>
       <c r="E21" t="n">
         <v>187.4605452976028</v>
@@ -24065,7 +24065,7 @@
         <v>160.7697824785144</v>
       </c>
       <c r="H21" t="n">
-        <v>135.3823959320322</v>
+        <v>59.67631361467662</v>
       </c>
       <c r="I21" t="n">
         <v>108.5091580928627</v>
@@ -24101,22 +24101,22 @@
         <v>203.4683135038341</v>
       </c>
       <c r="T21" t="n">
-        <v>229.1070318577418</v>
+        <v>153.4009495403862</v>
       </c>
       <c r="U21" t="n">
-        <v>249.633423953496</v>
+        <v>182.9515066483692</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W21" t="n">
-        <v>215.4057394232825</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X21" t="n">
-        <v>162.1895463713144</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y21" t="n">
-        <v>175.0527490739448</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="22">
@@ -24208,7 +24208,7 @@
         <v>287.3471557029128</v>
       </c>
       <c r="C23" t="n">
-        <v>256.3879475800582</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D23" t="n">
         <v>319.1317556432476</v>
@@ -24223,7 +24223,7 @@
         <v>421.7223238127198</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3746377688353</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I23" t="n">
         <v>235.6180226107624</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.2082294730605</v>
+        <v>1.616046615668324</v>
       </c>
       <c r="R23" t="n">
-        <v>180.8732471227138</v>
+        <v>103.6640752285635</v>
       </c>
       <c r="S23" t="n">
         <v>224.8250298051639</v>
@@ -24262,7 +24262,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7521737158166</v>
+        <v>171.5430018216663</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24274,7 +24274,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>300.7198045010318</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>110.8035854868841</v>
+        <v>120.0069187766669</v>
       </c>
       <c r="C24" t="n">
-        <v>126.6332557210891</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
         <v>172.0989423795122</v>
@@ -24299,7 +24299,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7697824785144</v>
+        <v>83.5606105843641</v>
       </c>
       <c r="H24" t="n">
         <v>135.3823959320322</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R24" t="n">
         <v>139.1693410830749</v>
@@ -24341,19 +24341,19 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U24" t="n">
-        <v>249.633423953496</v>
+        <v>172.4242520593457</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>206.0400848687808</v>
       </c>
       <c r="X24" t="n">
-        <v>184.5562296846039</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>165.687094519443</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="25">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>364.5563275970632</v>
+        <v>287.3471557029128</v>
       </c>
       <c r="C26" t="n">
-        <v>333.5971194742085</v>
+        <v>256.3879475800582</v>
       </c>
       <c r="D26" t="n">
-        <v>319.1317556432476</v>
+        <v>252.5395727858555</v>
       </c>
       <c r="E26" t="n">
-        <v>359.9585549362873</v>
+        <v>282.749383042137</v>
       </c>
       <c r="F26" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>344.5131519185694</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H26" t="n">
-        <v>267.7576487320771</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I26" t="n">
         <v>235.6180226107624</v>
@@ -24499,7 +24499,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U26" t="n">
-        <v>182.1599908584244</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24508,7 +24508,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X26" t="n">
-        <v>271.6077074093625</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y26" t="n">
         <v>377.9289763951821</v>
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>110.8035854868841</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C27" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
-        <v>94.88977048536188</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E27" t="n">
-        <v>110.2513734034525</v>
+        <v>141.9837112712438</v>
       </c>
       <c r="F27" t="n">
-        <v>173.9843481253239</v>
+        <v>96.77517623117359</v>
       </c>
       <c r="G27" t="n">
-        <v>92.76394387414685</v>
+        <v>83.5606105843641</v>
       </c>
       <c r="H27" t="n">
         <v>135.3823959320322</v>
@@ -24566,7 +24566,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>139.1693410830749</v>
@@ -24581,7 +24581,7 @@
         <v>249.633423953496</v>
       </c>
       <c r="V27" t="n">
-        <v>249.2999251801724</v>
+        <v>172.090753286022</v>
       </c>
       <c r="W27" t="n">
         <v>283.2492567629311</v>
@@ -24691,7 +24691,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
-        <v>321.9372456792187</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
         <v>344.5131519185694</v>
@@ -24724,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>68.2082294730605</v>
+        <v>1.616046615668324</v>
       </c>
       <c r="R29" t="n">
         <v>103.6640752285635</v>
       </c>
       <c r="S29" t="n">
-        <v>158.2328469477717</v>
+        <v>147.6158579110136</v>
       </c>
       <c r="T29" t="n">
         <v>217.3376759156334</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>120.0069187766669</v>
+        <v>110.8035854868841</v>
       </c>
       <c r="C30" t="n">
         <v>203.8424276152394</v>
@@ -24773,7 +24773,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7697824785144</v>
+        <v>92.76394387414685</v>
       </c>
       <c r="H30" t="n">
         <v>135.3823959320322</v>
@@ -24806,28 +24806,28 @@
         <v>22.52900457800858</v>
       </c>
       <c r="R30" t="n">
-        <v>61.9601691889246</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S30" t="n">
-        <v>126.2591416096838</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T30" t="n">
         <v>229.1070318577418</v>
       </c>
       <c r="U30" t="n">
-        <v>249.633423953496</v>
+        <v>172.4242520593457</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>206.0400848687808</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y30" t="n">
-        <v>165.687094519443</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="31">
@@ -24925,10 +24925,10 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>282.749383042137</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>321.9372456792187</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
         <v>421.7223238127198</v>
@@ -24961,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.616046615668324</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R32" t="n">
-        <v>180.8732471227138</v>
+        <v>103.6640752285635</v>
       </c>
       <c r="S32" t="n">
-        <v>224.8250298051639</v>
+        <v>147.6158579110136</v>
       </c>
       <c r="T32" t="n">
         <v>217.3376759156334</v>
@@ -24976,16 +24976,16 @@
         <v>248.7521737158166</v>
       </c>
       <c r="V32" t="n">
-        <v>313.3044420010231</v>
+        <v>236.0952701068728</v>
       </c>
       <c r="W32" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>271.6077074093625</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
-        <v>377.9289763951821</v>
+        <v>311.33679353779</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>110.8035854868841</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C33" t="n">
         <v>203.8424276152394</v>
@@ -25013,7 +25013,7 @@
         <v>160.7697824785144</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3823959320322</v>
+        <v>58.17322403788188</v>
       </c>
       <c r="I33" t="n">
         <v>108.5091580928627</v>
@@ -25040,25 +25040,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>139.1693410830749</v>
       </c>
       <c r="S33" t="n">
-        <v>203.4683135038341</v>
+        <v>126.2591416096838</v>
       </c>
       <c r="T33" t="n">
-        <v>229.1070318577418</v>
+        <v>151.8978599635914</v>
       </c>
       <c r="U33" t="n">
-        <v>181.6275853491284</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V33" t="n">
-        <v>172.090753286022</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W33" t="n">
-        <v>206.0400848687808</v>
+        <v>237.7724227365721</v>
       </c>
       <c r="X33" t="n">
         <v>230.033063710963</v>
@@ -25156,16 +25156,16 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C35" t="n">
-        <v>333.5971194742085</v>
+        <v>257.8910371568527</v>
       </c>
       <c r="D35" t="n">
-        <v>243.4256733258919</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2524726189316</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F35" t="n">
-        <v>332.4645002682421</v>
+        <v>323.4403352560133</v>
       </c>
       <c r="G35" t="n">
         <v>421.7223238127198</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.2082294730605</v>
+        <v>1.526312167933597</v>
       </c>
       <c r="R35" t="n">
         <v>180.8732471227138</v>
@@ -25210,7 +25210,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7521737158166</v>
+        <v>173.0460913984609</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25222,7 +25222,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>302.2228940778264</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="36">
@@ -25238,16 +25238,16 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
-        <v>127.9460296523939</v>
+        <v>96.39286006215652</v>
       </c>
       <c r="E36" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F36" t="n">
-        <v>173.9843481253239</v>
+        <v>98.27826580796822</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7697824785144</v>
+        <v>85.06370016115874</v>
       </c>
       <c r="H36" t="n">
         <v>135.3823959320322</v>
@@ -25277,10 +25277,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R36" t="n">
-        <v>63.46325876571923</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S36" t="n">
         <v>203.4683135038341</v>
@@ -25289,7 +25289,7 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U36" t="n">
-        <v>249.633423953496</v>
+        <v>182.9515066483691</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25298,10 +25298,10 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X36" t="n">
-        <v>154.3269813936073</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>167.1901840962377</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="37">
@@ -25396,22 +25396,22 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
-        <v>249.2365922395103</v>
+        <v>243.4256733258919</v>
       </c>
       <c r="E38" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>323.4403352560133</v>
       </c>
       <c r="G38" t="n">
         <v>421.7223238127198</v>
       </c>
       <c r="H38" t="n">
-        <v>275.0716572224901</v>
+        <v>269.2607383088717</v>
       </c>
       <c r="I38" t="n">
-        <v>165.722859207025</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J38" t="n">
         <v>62.27902778684214</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>6.644569547048633</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R38" t="n">
         <v>180.8732471227138</v>
@@ -25453,7 +25453,7 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
-        <v>325.3917254792934</v>
+        <v>258.7098081741665</v>
       </c>
       <c r="X38" t="n">
         <v>348.8168793035129</v>
@@ -25475,16 +25475,16 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
-        <v>172.0989423795122</v>
+        <v>96.39286006215652</v>
       </c>
       <c r="E39" t="n">
-        <v>187.4605452976028</v>
+        <v>111.7544629802471</v>
       </c>
       <c r="F39" t="n">
-        <v>134.9496927773206</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7697824785144</v>
+        <v>85.06370016115874</v>
       </c>
       <c r="H39" t="n">
         <v>135.3823959320322</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R39" t="n">
         <v>139.1693410830749</v>
@@ -25523,7 +25523,7 @@
         <v>203.4683135038341</v>
       </c>
       <c r="T39" t="n">
-        <v>229.1070318577418</v>
+        <v>162.4251145526148</v>
       </c>
       <c r="U39" t="n">
         <v>249.633423953496</v>
@@ -25532,13 +25532,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W39" t="n">
-        <v>213.3540933591937</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X39" t="n">
-        <v>160.1379003072256</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>173.001103009856</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="40">
@@ -25633,7 +25633,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
-        <v>273.7742155941173</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E41" t="n">
         <v>359.9585549362873</v>
@@ -25672,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>22.85068942393016</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R41" t="n">
-        <v>180.8732471227138</v>
+        <v>140.9223258474398</v>
       </c>
       <c r="S41" t="n">
-        <v>224.8250298051639</v>
+        <v>179.4674897560336</v>
       </c>
       <c r="T41" t="n">
         <v>217.3376759156334</v>
@@ -25687,7 +25687,7 @@
         <v>248.7521737158166</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>267.9469019518928</v>
       </c>
       <c r="W41" t="n">
         <v>280.034185430163</v>
@@ -25696,7 +25696,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>337.9780551199081</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>158.484887566109</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
         <v>172.0989423795122</v>
@@ -25751,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>139.169341083075</v>
       </c>
       <c r="S42" t="n">
-        <v>203.4683135038341</v>
+        <v>186.0463968065687</v>
       </c>
       <c r="T42" t="n">
-        <v>229.1070318577418</v>
+        <v>183.7494918086114</v>
       </c>
       <c r="U42" t="n">
         <v>249.633423953496</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>203.942385131042</v>
       </c>
       <c r="W42" t="n">
         <v>237.8917167138007</v>
       </c>
       <c r="X42" t="n">
-        <v>190.082142435689</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>197.538726364463</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="43">
@@ -25888,7 +25888,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J44" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R44" t="n">
-        <v>180.8732471227138</v>
+        <v>135.5157070735834</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4674897560336</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T44" t="n">
         <v>171.980135866503</v>
@@ -25955,10 +25955,10 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F45" t="n">
-        <v>173.9843481253239</v>
+        <v>156.5624314280585</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7697824785144</v>
+        <v>115.4122424293841</v>
       </c>
       <c r="H45" t="n">
         <v>135.3823959320322</v>
@@ -25967,7 +25967,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J45" t="n">
-        <v>40.87179275343847</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S45" t="n">
         <v>203.4683135038341</v>
@@ -26000,13 +26000,13 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U45" t="n">
-        <v>249.633423953496</v>
+        <v>204.2758839043657</v>
       </c>
       <c r="V45" t="n">
-        <v>203.942385131042</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
-        <v>237.8917167138007</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
@@ -26049,22 +26049,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K46" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L46" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M46" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N46" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O46" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P46" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q46" t="n">
         <v>134.42632090912</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>364545.298511496</v>
+        <v>363174.7124770317</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>440925.3481792529</v>
+        <v>443975.0762021656</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>447453.1414713299</v>
+        <v>447651.7695630002</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465084.2331331305</v>
+        <v>470493.3278440521</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465084.2331331304</v>
+        <v>470493.3278440521</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>471363.879705055</v>
+        <v>471363.8797050551</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>471363.879705055</v>
+        <v>471363.8797050549</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>466495.674298375</v>
+        <v>470493.3278440523</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449757.8925122518</v>
+        <v>449757.8925122519</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>121504.2796106751</v>
+      </c>
+      <c r="C2" t="n">
         <v>121999.4754572633</v>
       </c>
-      <c r="C2" t="n">
-        <v>121999.4754572634</v>
-      </c>
       <c r="D2" t="n">
-        <v>121999.4754572634</v>
+        <v>121999.4754572633</v>
       </c>
       <c r="E2" t="n">
-        <v>149583.3063614481</v>
+        <v>150279.552469887</v>
       </c>
       <c r="F2" t="n">
-        <v>151909.529386847</v>
+        <v>151838.0739275004</v>
       </c>
       <c r="G2" t="n">
-        <v>157521.6134936439</v>
+        <v>159196.7795085291</v>
       </c>
       <c r="H2" t="n">
-        <v>157521.6134936439</v>
+        <v>159196.7795085291</v>
       </c>
       <c r="I2" t="n">
-        <v>159466.3844922988</v>
+        <v>159466.3844922987</v>
       </c>
       <c r="J2" t="n">
         <v>159466.3844922987</v>
@@ -26349,7 +26349,7 @@
         <v>159196.7795085291</v>
       </c>
       <c r="N2" t="n">
-        <v>157958.7288333427</v>
+        <v>159196.7795085291</v>
       </c>
       <c r="O2" t="n">
         <v>152730.8429149133</v>
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300331.6078316385</v>
+        <v>297965.4180442812</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2236.019182749852</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122498.9563375701</v>
+        <v>117140.5056790119</v>
       </c>
       <c r="F3" t="n">
-        <v>10092.89091351506</v>
+        <v>12070.77261972457</v>
       </c>
       <c r="G3" t="n">
-        <v>9652.23512729464</v>
+        <v>15119.23811204536</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2490.524224787662</v>
+        <v>399.7030833508329</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8969.321832803427</v>
+        <v>10928.70447550794</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12102.3694127353</v>
+        <v>12162.34915730384</v>
       </c>
       <c r="C4" t="n">
         <v>12102.3694127353</v>
@@ -26426,16 +26426,16 @@
         <v>12102.3694127353</v>
       </c>
       <c r="E4" t="n">
-        <v>8822.965554581895</v>
+        <v>9867.013193127614</v>
       </c>
       <c r="F4" t="n">
-        <v>8634.769622569356</v>
+        <v>9041.311231968444</v>
       </c>
       <c r="G4" t="n">
-        <v>10070.95397532982</v>
+        <v>10646.37746104012</v>
       </c>
       <c r="H4" t="n">
-        <v>10070.95397532982</v>
+        <v>10646.37746104012</v>
       </c>
       <c r="I4" t="n">
         <v>10738.98741023151</v>
@@ -26453,13 +26453,13 @@
         <v>10646.37746104013</v>
       </c>
       <c r="N4" t="n">
-        <v>10221.10412772781</v>
+        <v>10646.37746104013</v>
       </c>
       <c r="O4" t="n">
         <v>8568.323773138183</v>
       </c>
       <c r="P4" t="n">
-        <v>8568.323773138181</v>
+        <v>8568.323773138178</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40422.05903150925</v>
+        <v>40368.52827033812</v>
       </c>
       <c r="C5" t="n">
-        <v>40422.05903150925</v>
+        <v>40422.05903150924</v>
       </c>
       <c r="D5" t="n">
         <v>40422.05903150925</v>
       </c>
       <c r="E5" t="n">
-        <v>12094.33447163753</v>
+        <v>12363.27830323665</v>
       </c>
       <c r="F5" t="n">
-        <v>12680.07509813026</v>
+        <v>12696.18298744617</v>
       </c>
       <c r="G5" t="n">
-        <v>14254.02844065392</v>
+        <v>14732.07239129851</v>
       </c>
       <c r="H5" t="n">
-        <v>14254.02844065392</v>
+        <v>14732.07239129851</v>
       </c>
       <c r="I5" t="n">
         <v>14823.46023756763</v>
@@ -26505,13 +26505,13 @@
         <v>14732.07239129852</v>
       </c>
       <c r="N5" t="n">
-        <v>14378.76852135052</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="O5" t="n">
         <v>12886.88102139041</v>
       </c>
       <c r="P5" t="n">
-        <v>12886.88102139041</v>
+        <v>12886.88102139042</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-230856.5608186197</v>
+        <v>-246061.9144295295</v>
       </c>
       <c r="C6" t="n">
-        <v>69475.04701301883</v>
+        <v>50196.64014235351</v>
       </c>
       <c r="D6" t="n">
-        <v>69475.04701301883</v>
+        <v>52432.65932510342</v>
       </c>
       <c r="E6" t="n">
-        <v>6167.049997658565</v>
+        <v>-4562.517003814288</v>
       </c>
       <c r="F6" t="n">
-        <v>120501.7937526323</v>
+        <v>102645.119315459</v>
       </c>
       <c r="G6" t="n">
-        <v>123544.3959503655</v>
+        <v>103723.2207479667</v>
       </c>
       <c r="H6" t="n">
-        <v>133196.6310776602</v>
+        <v>118842.458860012</v>
       </c>
       <c r="I6" t="n">
-        <v>131413.4126197119</v>
+        <v>118543.3410196242</v>
       </c>
       <c r="J6" t="n">
-        <v>133903.9368444995</v>
+        <v>118943.0441029751</v>
       </c>
       <c r="K6" t="n">
-        <v>133903.9368444996</v>
+        <v>118943.0441029751</v>
       </c>
       <c r="L6" t="n">
-        <v>133903.9368444996</v>
+        <v>118943.0441029751</v>
       </c>
       <c r="M6" t="n">
-        <v>124849.007823387</v>
+        <v>107913.7543845041</v>
       </c>
       <c r="N6" t="n">
-        <v>133358.8561842644</v>
+        <v>118842.458860012</v>
       </c>
       <c r="O6" t="n">
-        <v>131275.6381203847</v>
+        <v>115940.548624561</v>
       </c>
       <c r="P6" t="n">
-        <v>131275.6381203847</v>
+        <v>115940.548624561</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.6724326380389</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="C3" t="n">
-        <v>311.6724326380389</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="D3" t="n">
         <v>311.6724326380389</v>
       </c>
       <c r="E3" t="n">
-        <v>450.2128434538992</v>
+        <v>440.6210948738316</v>
       </c>
       <c r="F3" t="n">
-        <v>460.8750799926485</v>
+        <v>455.8919519476629</v>
       </c>
       <c r="G3" t="n">
         <v>464.639568183637</v>
@@ -26779,7 +26779,7 @@
         <v>464.639568183637</v>
       </c>
       <c r="P3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>37.49497507142323</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="F4" t="n">
-        <v>43.30589398504156</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="G4" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="H4" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="I4" t="n">
         <v>77.20917189415033</v>
@@ -26825,7 +26825,7 @@
         <v>75.70608231735569</v>
       </c>
       <c r="N4" t="n">
-        <v>69.89516340373737</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="O4" t="n">
         <v>45.35754004913036</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.6724326380389</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.455539503262514</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>138.5404108158604</v>
+        <v>128.9486622357928</v>
       </c>
       <c r="F3" t="n">
-        <v>10.66223653874925</v>
+        <v>15.27085707383129</v>
       </c>
       <c r="G3" t="n">
-        <v>3.764488190988629</v>
+        <v>8.747616235974132</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>37.49497507142323</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="F4" t="n">
-        <v>5.810918913618337</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>24.53762335460701</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.365654554501759</v>
+        <v>1.503089576794736</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.9918854946286</v>
+        <v>43.85445047233569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>37.49497507142323</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="N4" t="n">
-        <v>5.810918913618337</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>24.53762335460701</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.252954503067492</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H2" t="n">
-        <v>12.83182030453995</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I2" t="n">
-        <v>48.30452847950953</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J2" t="n">
-        <v>106.3429472547246</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K2" t="n">
-        <v>159.3805113695716</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L2" t="n">
-        <v>197.7256177428234</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M2" t="n">
-        <v>220.0078473867499</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N2" t="n">
-        <v>223.5678043685904</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O2" t="n">
-        <v>211.108738028713</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P2" t="n">
-        <v>180.1764237342343</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.3049905931297</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R2" t="n">
-        <v>78.70590330331341</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S2" t="n">
-        <v>28.5517007386505</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T2" t="n">
-        <v>5.484808337177948</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H3" t="n">
-        <v>6.474553742160015</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I3" t="n">
-        <v>23.08140185102458</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J3" t="n">
-        <v>63.33713086279241</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K3" t="n">
-        <v>108.2532448342894</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L3" t="n">
-        <v>145.559846959869</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M3" t="n">
-        <v>169.8614757877311</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N3" t="n">
-        <v>174.3572036132365</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O3" t="n">
-        <v>159.5027778614688</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P3" t="n">
-        <v>128.015041247122</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.57466490091966</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R3" t="n">
-        <v>41.62297128701962</v>
+        <v>41.295040935999</v>
       </c>
       <c r="S3" t="n">
-        <v>12.45219577568013</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T3" t="n">
-        <v>2.70214118485243</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.5576042335217277</v>
       </c>
       <c r="H4" t="n">
-        <v>4.996977690491839</v>
+        <v>4.957608548947729</v>
       </c>
       <c r="I4" t="n">
-        <v>16.9018427404366</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J4" t="n">
-        <v>39.73568046927914</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K4" t="n">
-        <v>65.29792932973992</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L4" t="n">
-        <v>83.55886825184406</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M4" t="n">
-        <v>88.10111075373283</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N4" t="n">
-        <v>86.00626325567394</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O4" t="n">
-        <v>79.44070463370868</v>
+        <v>78.81482384359842</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97524661994207</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.06253732834386</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R4" t="n">
-        <v>25.27101396438917</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S4" t="n">
-        <v>9.794689399460985</v>
+        <v>9.717521051465013</v>
       </c>
       <c r="T4" t="n">
-        <v>2.40141054655538</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>12.83182030453995</v>
       </c>
       <c r="I5" t="n">
-        <v>48.30452847950953</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J5" t="n">
         <v>106.3429472547246</v>
@@ -31311,13 +31311,13 @@
         <v>135.3049905931297</v>
       </c>
       <c r="R5" t="n">
-        <v>78.70590330331341</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S5" t="n">
         <v>28.5517007386505</v>
       </c>
       <c r="T5" t="n">
-        <v>5.484808337177949</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U5" t="n">
         <v>0.1002363602453993</v>
@@ -31357,10 +31357,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H6" t="n">
-        <v>6.474553742160016</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I6" t="n">
         <v>23.08140185102458</v>
@@ -31375,7 +31375,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M6" t="n">
-        <v>169.8614757877312</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N6" t="n">
         <v>174.3572036132365</v>
@@ -31387,7 +31387,7 @@
         <v>128.015041247122</v>
       </c>
       <c r="Q6" t="n">
-        <v>85.57466490091966</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R6" t="n">
         <v>41.62297128701962</v>
@@ -31439,31 +31439,31 @@
         <v>0.5620322555767913</v>
       </c>
       <c r="H7" t="n">
-        <v>4.996977690491839</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I7" t="n">
         <v>16.9018427404366</v>
       </c>
       <c r="J7" t="n">
-        <v>39.73568046927915</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K7" t="n">
-        <v>65.29792932973993</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L7" t="n">
-        <v>83.55886825184406</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M7" t="n">
-        <v>88.10111075373283</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N7" t="n">
-        <v>86.00626325567396</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O7" t="n">
-        <v>79.44070463370868</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P7" t="n">
-        <v>67.97524661994208</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q7" t="n">
         <v>47.06253732834386</v>
@@ -31472,13 +31472,13 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S7" t="n">
-        <v>9.794689399460987</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T7" t="n">
         <v>2.40141054655538</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31554,7 +31554,7 @@
         <v>28.5517007386505</v>
       </c>
       <c r="T8" t="n">
-        <v>5.484808337177949</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U8" t="n">
         <v>0.1002363602453993</v>
@@ -31597,7 +31597,7 @@
         <v>0.6703897607686119</v>
       </c>
       <c r="H9" t="n">
-        <v>6.474553742160016</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I9" t="n">
         <v>23.08140185102458</v>
@@ -31612,7 +31612,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M9" t="n">
-        <v>169.8614757877312</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N9" t="n">
         <v>174.3572036132365</v>
@@ -31682,10 +31682,10 @@
         <v>16.9018427404366</v>
       </c>
       <c r="J10" t="n">
-        <v>39.73568046927915</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K10" t="n">
-        <v>65.29792932973993</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L10" t="n">
         <v>83.55886825184406</v>
@@ -31694,13 +31694,13 @@
         <v>88.10111075373283</v>
       </c>
       <c r="N10" t="n">
-        <v>86.00626325567396</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O10" t="n">
         <v>79.44070463370868</v>
       </c>
       <c r="P10" t="n">
-        <v>67.97524661994208</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q10" t="n">
         <v>47.06253732834386</v>
@@ -31709,7 +31709,7 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S10" t="n">
-        <v>9.794689399460987</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T10" t="n">
         <v>2.40141054655538</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.809900878206629</v>
+        <v>1.771341084919925</v>
       </c>
       <c r="H11" t="n">
-        <v>18.53564736893364</v>
+        <v>18.14074688593618</v>
       </c>
       <c r="I11" t="n">
-        <v>69.77620360706112</v>
+        <v>68.28962717637546</v>
       </c>
       <c r="J11" t="n">
-        <v>153.61307466169</v>
+        <v>150.3403604062226</v>
       </c>
       <c r="K11" t="n">
-        <v>230.2261788361766</v>
+        <v>225.3212285308831</v>
       </c>
       <c r="L11" t="n">
-        <v>285.6159328375928</v>
+        <v>279.5309082585013</v>
       </c>
       <c r="M11" t="n">
-        <v>317.8027575803999</v>
+        <v>311.031995277446</v>
       </c>
       <c r="N11" t="n">
-        <v>322.9451384506045</v>
+        <v>316.0648181349748</v>
       </c>
       <c r="O11" t="n">
-        <v>304.9479365929373</v>
+        <v>298.4510452218022</v>
       </c>
       <c r="P11" t="n">
-        <v>260.2660086622112</v>
+        <v>254.7210621878415</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.4489334614362</v>
+        <v>191.2849095841466</v>
       </c>
       <c r="R11" t="n">
-        <v>113.6911860406472</v>
+        <v>111.2690044256013</v>
       </c>
       <c r="S11" t="n">
-        <v>41.24311626213359</v>
+        <v>40.36443497261283</v>
       </c>
       <c r="T11" t="n">
-        <v>7.922841094349521</v>
+        <v>7.754045599236974</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1447920702565303</v>
+        <v>0.141707286793594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9683823425234813</v>
+        <v>0.9477510342569209</v>
       </c>
       <c r="H12" t="n">
-        <v>9.352534729108362</v>
+        <v>9.153279725586579</v>
       </c>
       <c r="I12" t="n">
-        <v>33.34123416144443</v>
+        <v>32.63090183735451</v>
       </c>
       <c r="J12" t="n">
-        <v>91.4908949135891</v>
+        <v>89.54168872336989</v>
       </c>
       <c r="K12" t="n">
-        <v>156.3725118626623</v>
+        <v>153.0410080185836</v>
       </c>
       <c r="L12" t="n">
-        <v>210.2621397658989</v>
+        <v>205.7825217144249</v>
       </c>
       <c r="M12" t="n">
-        <v>245.365999682375</v>
+        <v>240.1384967062382</v>
       </c>
       <c r="N12" t="n">
-        <v>229.5822289932982</v>
+        <v>237.4447939710053</v>
       </c>
       <c r="O12" t="n">
-        <v>230.4027935739969</v>
+        <v>225.4940805058561</v>
       </c>
       <c r="P12" t="n">
-        <v>184.9185545122251</v>
+        <v>180.9788795152536</v>
       </c>
       <c r="Q12" t="n">
-        <v>123.6131565649272</v>
+        <v>120.9795881623396</v>
       </c>
       <c r="R12" t="n">
-        <v>60.12465105597547</v>
+        <v>58.84370017956569</v>
       </c>
       <c r="S12" t="n">
-        <v>17.98727728327606</v>
+        <v>17.60405978104411</v>
       </c>
       <c r="T12" t="n">
-        <v>3.903260406925785</v>
+        <v>3.820101756500482</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06370936463970274</v>
+        <v>0.06235204172742903</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8118592259004739</v>
+        <v>0.794562630100352</v>
       </c>
       <c r="H13" t="n">
-        <v>7.218166572096946</v>
+        <v>7.064384111255862</v>
       </c>
       <c r="I13" t="n">
-        <v>24.41482108435244</v>
+        <v>23.89466527610877</v>
       </c>
       <c r="J13" t="n">
-        <v>57.3984472711635</v>
+        <v>56.17557794809488</v>
       </c>
       <c r="K13" t="n">
-        <v>94.32328097280049</v>
+        <v>92.31373102438633</v>
       </c>
       <c r="L13" t="n">
-        <v>120.7013252761487</v>
+        <v>118.1297932060105</v>
       </c>
       <c r="M13" t="n">
-        <v>127.2626239291079</v>
+        <v>124.5513039165488</v>
       </c>
       <c r="N13" t="n">
-        <v>124.2366031780244</v>
+        <v>121.5897522952658</v>
       </c>
       <c r="O13" t="n">
-        <v>114.7526113118234</v>
+        <v>112.3078161163662</v>
       </c>
       <c r="P13" t="n">
-        <v>98.19068310345364</v>
+        <v>96.09873846231891</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.98213936153878</v>
+        <v>66.53378532594857</v>
       </c>
       <c r="R13" t="n">
-        <v>36.50414301185221</v>
+        <v>35.72642516796673</v>
       </c>
       <c r="S13" t="n">
-        <v>14.14849214592007</v>
+        <v>13.84705965365795</v>
       </c>
       <c r="T13" t="n">
-        <v>3.468853056120206</v>
+        <v>3.394949419519685</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04428323050366226</v>
+        <v>0.04333977982365562</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.852764140673962</v>
+        <v>1.832731465116231</v>
       </c>
       <c r="H14" t="n">
-        <v>18.97462075567722</v>
+        <v>18.76946111712161</v>
       </c>
       <c r="I14" t="n">
-        <v>71.428689533333</v>
+        <v>70.65637980889358</v>
       </c>
       <c r="J14" t="n">
-        <v>157.2510404845268</v>
+        <v>155.5507921874089</v>
       </c>
       <c r="K14" t="n">
-        <v>235.6785465592557</v>
+        <v>233.130315105779</v>
       </c>
       <c r="L14" t="n">
-        <v>292.3800771294066</v>
+        <v>289.2187706813299</v>
       </c>
       <c r="M14" t="n">
-        <v>325.3291714161171</v>
+        <v>321.8116088740907</v>
       </c>
       <c r="N14" t="n">
-        <v>330.593337530807</v>
+        <v>327.0188571493522</v>
       </c>
       <c r="O14" t="n">
-        <v>312.1699141069803</v>
+        <v>308.7946336431027</v>
       </c>
       <c r="P14" t="n">
-        <v>266.4297993840918</v>
+        <v>263.5490755980456</v>
       </c>
       <c r="Q14" t="n">
-        <v>200.0776835962055</v>
+        <v>197.9143800035706</v>
       </c>
       <c r="R14" t="n">
-        <v>116.3836954516109</v>
+        <v>115.1253178956076</v>
       </c>
       <c r="S14" t="n">
-        <v>42.21986285560796</v>
+        <v>41.76336826133616</v>
       </c>
       <c r="T14" t="n">
-        <v>8.110475025800273</v>
+        <v>8.022781988546306</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1482211312539169</v>
+        <v>0.1466185172092985</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9913162097955081</v>
+        <v>0.9805977834345957</v>
       </c>
       <c r="H15" t="n">
-        <v>9.574027605130302</v>
+        <v>9.470510171592018</v>
       </c>
       <c r="I15" t="n">
-        <v>34.13084318813482</v>
+        <v>33.76180964895428</v>
       </c>
       <c r="J15" t="n">
-        <v>93.65764243510984</v>
+        <v>92.64498619721329</v>
       </c>
       <c r="K15" t="n">
-        <v>160.0758284914089</v>
+        <v>158.3450376873312</v>
       </c>
       <c r="L15" t="n">
-        <v>215.2417059909063</v>
+        <v>212.9144441619722</v>
       </c>
       <c r="M15" t="n">
-        <v>251.1769185959934</v>
+        <v>248.4611138114763</v>
       </c>
       <c r="N15" t="n">
-        <v>235.3931479069165</v>
+        <v>237.4447939710053</v>
       </c>
       <c r="O15" t="n">
-        <v>235.8593440034076</v>
+        <v>233.3091577104233</v>
       </c>
       <c r="P15" t="n">
-        <v>189.2979172898107</v>
+        <v>187.2511679612957</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.540644604774</v>
+        <v>125.1724468819319</v>
       </c>
       <c r="R15" t="n">
-        <v>61.54856256958428</v>
+        <v>60.88307992236904</v>
       </c>
       <c r="S15" t="n">
-        <v>18.41326380914024</v>
+        <v>18.21417374055048</v>
       </c>
       <c r="T15" t="n">
-        <v>3.995699985973998</v>
+        <v>3.952497206036812</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06521817169707292</v>
+        <v>0.06451301206806553</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8310862098228086</v>
+        <v>0.8221002412170969</v>
       </c>
       <c r="H16" t="n">
-        <v>7.389111938242794</v>
+        <v>7.309218508275649</v>
       </c>
       <c r="I16" t="n">
-        <v>24.99302892812592</v>
+        <v>24.72279634496507</v>
       </c>
       <c r="J16" t="n">
-        <v>58.75779503447257</v>
+        <v>58.12248705404875</v>
       </c>
       <c r="K16" t="n">
-        <v>96.55710692304993</v>
+        <v>95.5131007523136</v>
       </c>
       <c r="L16" t="n">
-        <v>123.559853413111</v>
+        <v>122.2238849533128</v>
       </c>
       <c r="M16" t="n">
-        <v>130.2765410543153</v>
+        <v>128.8679496300582</v>
       </c>
       <c r="N16" t="n">
-        <v>127.1788560904304</v>
+        <v>125.8037578218855</v>
       </c>
       <c r="O16" t="n">
-        <v>117.4702580938639</v>
+        <v>116.2001322767584</v>
       </c>
       <c r="P16" t="n">
-        <v>100.5160994134786</v>
+        <v>99.42928735592957</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.59213707888992</v>
+        <v>68.8396847440971</v>
       </c>
       <c r="R16" t="n">
-        <v>37.36865812530555</v>
+        <v>36.96461630054328</v>
       </c>
       <c r="S16" t="n">
-        <v>14.48356603845749</v>
+        <v>14.32696511284704</v>
       </c>
       <c r="T16" t="n">
-        <v>3.551004714697454</v>
+        <v>3.512610121563959</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04533197508124416</v>
+        <v>0.04484183133911443</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H44" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I44" t="n">
         <v>72.01212845185798</v>
@@ -34374,22 +34374,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L44" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M44" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N44" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O44" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P44" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R44" t="n">
         <v>117.334332763479</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H45" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I45" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J45" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K45" t="n">
         <v>161.3833488850657</v>
@@ -34471,16 +34471,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R45" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S45" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T45" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,16 +34520,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H46" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I46" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J46" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K46" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L46" t="n">
         <v>124.569106525823</v>
@@ -34547,10 +34547,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R46" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S46" t="n">
         <v>14.60186970832839</v>
@@ -34559,7 +34559,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>37.49497507142323</v>
+        <v>43.31444214801201</v>
       </c>
       <c r="M11" t="n">
-        <v>37.49497507142323</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="N11" t="n">
-        <v>37.49497507142323</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="O11" t="n">
-        <v>35.98002658368895</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.2104700203453262</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>20.20886514185403</v>
       </c>
       <c r="L12" t="n">
-        <v>35.98002658368893</v>
+        <v>19.45904197449116</v>
       </c>
       <c r="M12" t="n">
-        <v>37.49497507142323</v>
+        <v>32.26747209528639</v>
       </c>
       <c r="N12" t="n">
-        <v>37.49497507142323</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="O12" t="n">
-        <v>37.49497507142323</v>
+        <v>16.94707300585608</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>43.30589398504156</v>
+        <v>34.48642873780793</v>
       </c>
       <c r="M14" t="n">
-        <v>43.30589398504156</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="N14" t="n">
-        <v>43.30589398504156</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="O14" t="n">
-        <v>41.55616089473685</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>9.038483430549434</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>25.51289481060164</v>
       </c>
       <c r="L15" t="n">
-        <v>43.30589398504156</v>
+        <v>10.27866373390623</v>
       </c>
       <c r="M15" t="n">
-        <v>43.30589398504156</v>
+        <v>40.59008920052443</v>
       </c>
       <c r="N15" t="n">
-        <v>43.30589398504156</v>
+        <v>45.35754004913031</v>
       </c>
       <c r="O15" t="n">
-        <v>41.55616089473685</v>
+        <v>24.76215021042333</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>33.09619431116236</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>51.00692430942253</v>
+        <v>58.55180989409087</v>
       </c>
       <c r="M17" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="N17" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="O17" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="P17" t="n">
         <v>14.09544081448263</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>28.55120600833615</v>
       </c>
       <c r="L18" t="n">
-        <v>67.84351733964857</v>
+        <v>14.36404809015056</v>
       </c>
       <c r="M18" t="n">
-        <v>67.84351733964857</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="N18" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O18" t="n">
-        <v>65.10236512390517</v>
+        <v>67.94310385601914</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>51.00692430942253</v>
+        <v>58.55180989409087</v>
       </c>
       <c r="M20" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="N20" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="O20" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="P20" t="n">
         <v>14.09544081448263</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>28.55120600833615</v>
       </c>
       <c r="L21" t="n">
-        <v>14.36404809015056</v>
+        <v>53.06828533996442</v>
       </c>
       <c r="M21" t="n">
-        <v>67.84351733964857</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="N21" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O21" t="n">
-        <v>67.84351733964857</v>
+        <v>29.23886660620528</v>
       </c>
       <c r="P21" t="n">
-        <v>50.73831703375463</v>
+        <v>75.70608231735559</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>77.20917189415033</v>
+        <v>38.09772389874799</v>
       </c>
       <c r="M24" t="n">
-        <v>77.20917189415033</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N24" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O24" t="n">
-        <v>54.90405793954217</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>28.55120600833618</v>
+        <v>8.858857292542691</v>
       </c>
       <c r="L27" t="n">
         <v>77.20917189415033</v>
       </c>
       <c r="M27" t="n">
-        <v>54.90405793954217</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N27" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O27" t="n">
+        <v>29.23886660620531</v>
+      </c>
+      <c r="P27" t="n">
         <v>77.20917189415033</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36925,10 +36925,10 @@
         <v>67.84351733964857</v>
       </c>
       <c r="O30" t="n">
+        <v>72.39164169441156</v>
+      </c>
+      <c r="P30" t="n">
         <v>77.20917189415033</v>
-      </c>
-      <c r="P30" t="n">
-        <v>72.39164169441156</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L33" t="n">
         <v>77.20917189415033</v>
       </c>
       <c r="M33" t="n">
-        <v>77.20917189415033</v>
+        <v>54.90405793954217</v>
       </c>
       <c r="N33" t="n">
-        <v>74.08960939337661</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O33" t="n">
         <v>77.20917189415033</v>
@@ -37393,16 +37393,16 @@
         <v>75.70608231735569</v>
       </c>
       <c r="M36" t="n">
-        <v>45.35754004913036</v>
+        <v>51.27094908007543</v>
       </c>
       <c r="N36" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O36" t="n">
+        <v>29.23886660620531</v>
+      </c>
+      <c r="P36" t="n">
         <v>75.70608231735569</v>
-      </c>
-      <c r="P36" t="n">
-        <v>35.15227563715037</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,13 +37551,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M38" t="n">
-        <v>69.89516340373737</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="N38" t="n">
-        <v>69.89516340373737</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="O38" t="n">
-        <v>64.3190290926895</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="P38" t="n">
         <v>14.09544081448269</v>
@@ -37627,7 +37627,7 @@
         <v>28.55120600833618</v>
       </c>
       <c r="L39" t="n">
-        <v>35.87031320168008</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M39" t="n">
         <v>45.35754004913036</v>
@@ -37636,10 +37636,10 @@
         <v>67.84351733964857</v>
       </c>
       <c r="O39" t="n">
-        <v>29.23886660620531</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="P39" t="n">
-        <v>69.89516340373737</v>
+        <v>67.94310385601931</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>29.4294713538748</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M41" t="n">
         <v>45.35754004913036</v>
@@ -37794,7 +37794,7 @@
         <v>45.35754004913036</v>
       </c>
       <c r="O41" t="n">
-        <v>45.35754004913036</v>
+        <v>29.4294713538748</v>
       </c>
       <c r="P41" t="n">
         <v>14.09544081448263</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>43.52491216835742</v>
+        <v>14.36404809015056</v>
       </c>
       <c r="M42" t="n">
-        <v>45.35754004913036</v>
+        <v>45.35754004913034</v>
       </c>
       <c r="N42" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="O42" t="n">
-        <v>45.35754004913036</v>
+        <v>29.23886660620528</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>45.27953752113199</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38028,13 +38028,13 @@
         <v>45.35754004913036</v>
       </c>
       <c r="N44" t="n">
-        <v>29.4294713538748</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O44" t="n">
-        <v>45.35754004913036</v>
+        <v>43.52491216835742</v>
       </c>
       <c r="P44" t="n">
-        <v>14.09544081448263</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>14.36404809015059</v>
+      </c>
+      <c r="M45" t="n">
         <v>45.35754004913036</v>
-      </c>
-      <c r="M45" t="n">
-        <v>45.35754004913034</v>
       </c>
       <c r="N45" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="O45" t="n">
-        <v>43.52491216835745</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>45.27953752113186</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
